--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -477,10 +477,10 @@
     <t>required</t>
   </si>
   <si>
+    <t>search</t>
+  </si>
+  <si>
     <t>displayLabel</t>
-  </si>
-  <si>
-    <t>search</t>
   </si>
   <si>
     <t>comments</t>
@@ -2493,6 +2493,9 @@
         <v>103</v>
       </c>
       <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2534,10 +2537,10 @@
         <v>80</v>
       </c>
       <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
         <v>169</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
       </c>
       <c r="O7" t="s">
         <v>171</v>
@@ -3118,7 +3121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3203,26 +3206,56 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3234,33 +3267,39 @@
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
         <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -3269,10 +3308,10 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
         <v>163</v>
@@ -3287,68 +3326,74 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
         <v>173</v>
@@ -3392,10 +3437,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -3439,10 +3484,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -3486,40 +3531,40 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
         <v>173</v>
@@ -3528,45 +3573,45 @@
         <v>173</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="M12" t="s">
         <v>173</v>
@@ -3575,15 +3620,15 @@
         <v>173</v>
       </c>
       <c r="O12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
         <v>173</v>
@@ -3627,10 +3672,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>173</v>
@@ -3674,10 +3719,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -3721,107 +3766,110 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
         <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
         <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
         <v>173</v>
       </c>
       <c r="O16" t="s">
         <v>173</v>
+      </c>
+      <c r="P16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
         <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
         <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
         <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s">
         <v>173</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
         <v>173</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
@@ -3868,10 +3916,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>173</v>
@@ -3913,56 +3961,6 @@
         <v>173</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" t="s">
-        <v>173</v>
-      </c>
-      <c r="L20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" t="s">
-        <v>173</v>
-      </c>
-      <c r="N20" t="s">
-        <v>173</v>
-      </c>
-      <c r="O20" t="s">
-        <v>173</v>
-      </c>
-      <c r="P20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4043,7 +4041,7 @@
         <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O1" t="s">
         <v>195</v>
@@ -4052,7 +4050,7 @@
         <v>196</v>
       </c>
       <c r="Q1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -6788,7 +6786,7 @@
         <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L1" t="s">
         <v>144</v>
@@ -6800,7 +6798,7 @@
         <v>195</v>
       </c>
       <c r="O1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>154</v>
@@ -9002,7 +9000,7 @@
         <v>173</v>
       </c>
       <c r="O46" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="P46" t="s">
         <v>173</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>acl</t>
   </si>
@@ -270,6 +270,12 @@
     <t>University of Alberta</t>
   </si>
   <si>
+    <t>http://id.loc.gov/authorities/names/n2009054054</t>
+  </si>
+  <si>
+    <t>St. Stephen's College</t>
+  </si>
+  <si>
     <t>http://purl.org/dc/terms/language</t>
   </si>
   <si>
@@ -321,15 +327,15 @@
     <t>English</t>
   </si>
   <si>
+    <t>http://purl.org/dc/terms/license</t>
+  </si>
+  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>http://purl.org/dc/terms/license</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -363,12 +369,6 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>http://creativecommons.org/licenses/by/3.0/</t>
-  </si>
-  <si>
-    <t>Attribution 3.0 Unported</t>
-  </si>
-  <si>
     <t>http://creativecommons.org/licenses/by-nc-nd/4.0/</t>
   </si>
   <si>
@@ -606,6 +606,9 @@
     <t>indicates community inheritence</t>
   </si>
   <si>
+    <t>github test</t>
+  </si>
+  <si>
     <t>indexAs</t>
   </si>
   <si>
@@ -1077,7 +1080,7 @@
     <t>degree grantor</t>
   </si>
   <si>
-    <t>{u'onForm': u'true', u'uri': u'naf : n79058482', u'label': u'University of Alberta'}</t>
+    <t>{u'onForm': u'true', u'uri': u'naf : n2009054054', u'label': u"St. Stephen's College"}</t>
   </si>
   <si>
     <t>ual : dissertant</t>
@@ -1837,20 +1840,20 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>80</v>
       </c>
@@ -1943,18 +1946,18 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -1998,7 +2001,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -2100,7 +2103,7 @@
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -2155,16 +2158,16 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2172,10 +2175,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2183,10 +2186,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2194,10 +2197,10 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2205,10 +2208,10 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2216,10 +2219,10 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2227,10 +2230,10 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2238,10 +2241,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2249,21 +2252,21 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2271,32 +2274,32 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2304,10 +2307,10 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2425,13 +2428,13 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>162</v>
@@ -2440,19 +2443,19 @@
         <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
         <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2463,13 +2466,13 @@
         <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>166</v>
@@ -2481,7 +2484,7 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
@@ -2490,10 +2493,10 @@
         <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
         <v>166</v>
@@ -2507,7 +2510,7 @@
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>161</v>
@@ -2525,7 +2528,7 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
@@ -2742,13 +2745,13 @@
         <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>179</v>
@@ -2757,19 +2760,19 @@
         <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
         <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
         <v>173</v>
@@ -3220,13 +3223,13 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>162</v>
@@ -3235,19 +3238,19 @@
         <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3258,13 +3261,13 @@
         <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>166</v>
@@ -3276,7 +3279,7 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
@@ -3285,10 +3288,10 @@
         <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
         <v>166</v>
@@ -3302,7 +3305,7 @@
         <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>161</v>
@@ -3320,7 +3323,7 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
@@ -3537,13 +3540,13 @@
         <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>179</v>
@@ -3552,19 +3555,19 @@
         <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
         <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
         <v>173</v>
@@ -3772,13 +3775,13 @@
         <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>173</v>
@@ -3790,7 +3793,7 @@
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
@@ -3961,7 +3964,7 @@
         <v>173</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4044,10 +4047,10 @@
         <v>153</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q1" t="s">
         <v>152</v>
@@ -4058,18 +4061,18 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4082,25 +4085,25 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
         <v>163</v>
@@ -4109,27 +4112,27 @@
         <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
         <v>80</v>
       </c>
       <c r="L5" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
         <v>203</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
@@ -4214,10 +4217,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -4226,13 +4229,13 @@
         <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
         <v>163</v>
@@ -4247,13 +4250,13 @@
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O8" t="s">
         <v>159</v>
@@ -4261,25 +4264,25 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
@@ -4288,19 +4291,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
       </c>
       <c r="L9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
         <v>213</v>
-      </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s">
-        <v>212</v>
       </c>
       <c r="O9" t="s">
         <v>173</v>
@@ -4308,10 +4311,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -4402,43 +4405,43 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
         <v>173</v>
@@ -4449,10 +4452,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -4461,13 +4464,13 @@
         <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
         <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
@@ -4476,25 +4479,25 @@
         <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O13" t="s">
         <v>173</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4549,25 +4552,25 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4576,25 +4579,25 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O15" t="s">
         <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4655,7 +4658,7 @@
         <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>161</v>
@@ -4676,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4702,43 +4705,43 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
         <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
         <v>173</v>
@@ -4808,10 +4811,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -4861,10 +4864,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>173</v>
@@ -4970,40 +4973,40 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
         <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
         <v>173</v>
@@ -5020,10 +5023,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
@@ -5038,7 +5041,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>
@@ -5047,19 +5050,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
         <v>80</v>
       </c>
       <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
         <v>241</v>
-      </c>
-      <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" t="s">
-        <v>240</v>
       </c>
       <c r="O24" t="s">
         <v>173</v>
@@ -5079,13 +5082,13 @@
         <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>173</v>
@@ -5100,7 +5103,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s">
         <v>80</v>
@@ -5109,7 +5112,7 @@
         <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s">
         <v>166</v>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
         <v>173</v>
@@ -5179,43 +5182,43 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
         <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
         <v>173</v>
@@ -5232,25 +5235,25 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H28" t="s">
         <v>180</v>
@@ -5259,19 +5262,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s">
         <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
         <v>173</v>
@@ -5280,7 +5283,7 @@
         <v>173</v>
       </c>
       <c r="Q28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -5291,13 +5294,13 @@
         <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
         <v>182</v>
@@ -5309,19 +5312,19 @@
         <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s">
         <v>181</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
         <v>173</v>
@@ -5391,10 +5394,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -5444,10 +5447,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
         <v>173</v>
@@ -5497,43 +5500,43 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H33" t="s">
         <v>163</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s">
         <v>173</v>
@@ -5550,25 +5553,25 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
         <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H34" t="s">
         <v>163</v>
@@ -5583,16 +5586,16 @@
         <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P34" t="s">
         <v>173</v>
@@ -5603,22 +5606,22 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
         <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -5633,22 +5636,22 @@
         <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s">
         <v>173</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q35" t="s">
         <v>173</v>
@@ -5659,7 +5662,7 @@
         <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -5668,7 +5671,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
         <v>173</v>
@@ -5683,7 +5686,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
         <v>80</v>
@@ -5707,7 +5710,7 @@
         <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5768,10 +5771,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>173</v>
@@ -5836,7 +5839,7 @@
         <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>173</v>
@@ -5863,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
         <v>173</v>
@@ -5880,25 +5883,25 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
         <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
         <v>163</v>
@@ -5913,16 +5916,16 @@
         <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P40" t="s">
         <v>173</v>
@@ -5936,10 +5939,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -6048,25 +6051,25 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
@@ -6081,13 +6084,13 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
         <v>173</v>
@@ -6104,10 +6107,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
         <v>173</v>
@@ -6160,25 +6163,25 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
         <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
         <v>163</v>
@@ -6187,19 +6190,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s">
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O45" t="s">
         <v>173</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
         <v>173</v>
@@ -6328,25 +6331,25 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
         <v>163</v>
@@ -6358,13 +6361,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N48" t="s">
         <v>173</v>
@@ -6384,10 +6387,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -6440,25 +6443,25 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
         <v>163</v>
@@ -6467,16 +6470,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s">
         <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N50" t="s">
         <v>173</v>
@@ -6496,10 +6499,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
@@ -6508,13 +6511,13 @@
         <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
         <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
         <v>73</v>
@@ -6529,19 +6532,19 @@
         <v>80</v>
       </c>
       <c r="L51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M51" t="s">
         <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51" t="s">
         <v>173</v>
       </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q51" t="s">
         <v>173</v>
@@ -6552,43 +6555,43 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H52" t="s">
         <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N52" t="s">
         <v>173</v>
@@ -6608,10 +6611,10 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
@@ -6620,13 +6623,13 @@
         <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
         <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>163</v>
@@ -6641,13 +6644,13 @@
         <v>80</v>
       </c>
       <c r="L53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s">
         <v>80</v>
       </c>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s">
         <v>173</v>
@@ -6664,10 +6667,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -6795,7 +6798,7 @@
         <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
@@ -6804,7 +6807,7 @@
         <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -6812,10 +6815,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6828,16 +6831,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
         <v>163</v>
@@ -6852,33 +6855,33 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
@@ -6887,33 +6890,33 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>203</v>
       </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>202</v>
-      </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>180</v>
@@ -6922,28 +6925,28 @@
         <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
       </c>
       <c r="I6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>320</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>319</v>
-      </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6992,10 +6995,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>173</v>
@@ -7036,10 +7039,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -7124,43 +7127,43 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
         <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>322</v>
-      </c>
       <c r="L11" t="s">
         <v>173</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
         <v>165</v>
@@ -7236,7 +7239,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
@@ -7251,7 +7254,7 @@
         <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -7265,16 +7268,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
         <v>163</v>
@@ -7289,19 +7292,19 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
         <v>327</v>
       </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>326</v>
-      </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
         <v>173</v>
@@ -7312,43 +7315,43 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
         <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N15" t="s">
         <v>173</v>
@@ -7357,7 +7360,7 @@
         <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -7412,16 +7415,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
         <v>163</v>
@@ -7436,19 +7439,19 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
         <v>335</v>
       </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" t="s">
-        <v>334</v>
-      </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s">
         <v>173</v>
@@ -7462,43 +7465,43 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
         <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
         <v>173</v>
@@ -7512,10 +7515,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>173</v>
@@ -7615,40 +7618,40 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
         <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
         <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
         <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
         <v>173</v>
@@ -7657,15 +7660,15 @@
         <v>173</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
         <v>173</v>
@@ -7712,16 +7715,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
         <v>180</v>
@@ -7730,48 +7733,48 @@
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
         <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C24" t="s">
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -7786,16 +7789,16 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M24" t="s">
         <v>173</v>
@@ -7804,7 +7807,7 @@
         <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
         <v>173</v>
@@ -7827,28 +7830,28 @@
         <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
         <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s">
         <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s">
         <v>173</v>
@@ -7912,10 +7915,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>173</v>
@@ -7962,43 +7965,43 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
         <v>173</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N28" t="s">
         <v>173</v>
@@ -8007,7 +8010,7 @@
         <v>173</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8021,7 +8024,7 @@
         <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E29" t="s">
         <v>180</v>
@@ -8060,15 +8063,15 @@
         <v>173</v>
       </c>
       <c r="Q29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>173</v>
@@ -8121,7 +8124,7 @@
         <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -8154,7 +8157,7 @@
         <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N31" t="s">
         <v>173</v>
@@ -8169,21 +8172,21 @@
         <v>173</v>
       </c>
       <c r="R31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
         <v>180</v>
@@ -8192,25 +8195,25 @@
         <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J32" t="s">
         <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
         <v>173</v>
@@ -8222,7 +8225,7 @@
         <v>173</v>
       </c>
       <c r="Q32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R32" t="s">
         <v>173</v>
@@ -8286,16 +8289,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
         <v>163</v>
@@ -8304,19 +8307,19 @@
         <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
         <v>173</v>
@@ -8325,7 +8328,7 @@
         <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s">
         <v>80</v>
@@ -8342,43 +8345,43 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
         <v>173</v>
       </c>
       <c r="L35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
         <v>173</v>
@@ -8398,43 +8401,43 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
         <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
         <v>364</v>
       </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>365</v>
-      </c>
-      <c r="J36" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" t="s">
-        <v>363</v>
-      </c>
       <c r="L36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N36" t="s">
         <v>173</v>
@@ -8510,22 +8513,22 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
@@ -8534,19 +8537,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N38" t="s">
         <v>173</v>
@@ -8566,10 +8569,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" t="s">
         <v>173</v>
@@ -8678,43 +8681,43 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s">
         <v>173</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N41" t="s">
         <v>173</v>
@@ -8723,7 +8726,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q41" t="s">
         <v>173</v>
@@ -8734,10 +8737,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C42" t="s">
         <v>173</v>
@@ -8790,16 +8793,16 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
         <v>163</v>
@@ -8808,25 +8811,25 @@
         <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s">
         <v>173</v>
       </c>
       <c r="L43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N43" t="s">
         <v>173</v>
@@ -8846,16 +8849,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
         <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8864,25 +8867,25 @@
         <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N44" t="s">
         <v>173</v>
@@ -8894,7 +8897,7 @@
         <v>173</v>
       </c>
       <c r="Q44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R44" t="s">
         <v>173</v>
@@ -8902,43 +8905,43 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s">
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
         <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s">
         <v>173</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s">
         <v>173</v>
@@ -8947,7 +8950,7 @@
         <v>173</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45" t="s">
         <v>173</v>
@@ -8958,16 +8961,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
         <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
         <v>163</v>
@@ -8982,19 +8985,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N46" t="s">
         <v>173</v>
@@ -9014,16 +9017,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -9032,25 +9035,25 @@
         <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H47" t="s">
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N47" t="s">
         <v>173</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
   <si>
     <t>acl</t>
   </si>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>indicates community inheritence</t>
-  </si>
-  <si>
-    <t>github test</t>
   </si>
   <si>
     <t>indexAs</t>
@@ -3964,7 +3961,7 @@
         <v>173</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4047,10 +4044,10 @@
         <v>153</v>
       </c>
       <c r="O1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" t="s">
         <v>196</v>
-      </c>
-      <c r="P1" t="s">
-        <v>197</v>
       </c>
       <c r="Q1" t="s">
         <v>152</v>
@@ -4061,18 +4058,18 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4085,10 +4082,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -4100,10 +4097,10 @@
         <v>105</v>
       </c>
       <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" t="s">
         <v>202</v>
-      </c>
-      <c r="G5" t="s">
-        <v>203</v>
       </c>
       <c r="H5" t="s">
         <v>163</v>
@@ -4118,21 +4115,21 @@
         <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M5" t="s">
         <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
@@ -4217,10 +4214,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -4235,7 +4232,7 @@
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
         <v>163</v>
@@ -4250,13 +4247,13 @@
         <v>80</v>
       </c>
       <c r="L8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s">
         <v>209</v>
-      </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" t="s">
-        <v>210</v>
       </c>
       <c r="O8" t="s">
         <v>159</v>
@@ -4264,10 +4261,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -4279,10 +4276,10 @@
         <v>105</v>
       </c>
       <c r="F9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
         <v>212</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
@@ -4297,13 +4294,13 @@
         <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M9" t="s">
         <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O9" t="s">
         <v>173</v>
@@ -4311,10 +4308,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -4405,10 +4402,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
         <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -4420,10 +4417,10 @@
         <v>105</v>
       </c>
       <c r="F12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" t="s">
         <v>218</v>
-      </c>
-      <c r="G12" t="s">
-        <v>219</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
@@ -4438,7 +4435,7 @@
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
         <v>105</v>
@@ -4452,10 +4449,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -4470,7 +4467,7 @@
         <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
@@ -4485,19 +4482,19 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
         <v>223</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" t="s">
         <v>224</v>
-      </c>
-      <c r="O13" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4552,10 +4549,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -4567,10 +4564,10 @@
         <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4585,19 +4582,19 @@
         <v>80</v>
       </c>
       <c r="L15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" t="s">
         <v>228</v>
       </c>
-      <c r="M15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P15" t="s">
         <v>229</v>
-      </c>
-      <c r="O15" t="s">
-        <v>173</v>
-      </c>
-      <c r="P15" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4705,10 +4702,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
         <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
@@ -4723,7 +4720,7 @@
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
         <v>163</v>
@@ -4738,7 +4735,7 @@
         <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M18" t="s">
         <v>105</v>
@@ -4811,10 +4808,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -4864,10 +4861,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
         <v>173</v>
@@ -4973,7 +4970,7 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
@@ -4985,10 +4982,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
         <v>163</v>
@@ -5003,7 +5000,7 @@
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s">
         <v>105</v>
@@ -5023,10 +5020,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
@@ -5041,7 +5038,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>
@@ -5056,13 +5053,13 @@
         <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
         <v>173</v>
@@ -5129,10 +5126,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
         <v>173</v>
@@ -5182,10 +5179,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" t="s">
         <v>244</v>
-      </c>
-      <c r="B27" t="s">
-        <v>245</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
@@ -5197,10 +5194,10 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27" t="s">
         <v>163</v>
@@ -5215,7 +5212,7 @@
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s">
         <v>105</v>
@@ -5235,10 +5232,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
         <v>248</v>
-      </c>
-      <c r="B28" t="s">
-        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>105</v>
@@ -5250,10 +5247,10 @@
         <v>105</v>
       </c>
       <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
         <v>250</v>
-      </c>
-      <c r="G28" t="s">
-        <v>251</v>
       </c>
       <c r="H28" t="s">
         <v>180</v>
@@ -5268,13 +5265,13 @@
         <v>105</v>
       </c>
       <c r="L28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" t="s">
         <v>252</v>
-      </c>
-      <c r="M28" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" t="s">
-        <v>253</v>
       </c>
       <c r="O28" t="s">
         <v>173</v>
@@ -5394,10 +5391,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
         <v>254</v>
-      </c>
-      <c r="B31" t="s">
-        <v>255</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -5447,10 +5444,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s">
         <v>173</v>
@@ -5500,10 +5497,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
         <v>257</v>
-      </c>
-      <c r="B33" t="s">
-        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
@@ -5515,10 +5512,10 @@
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H33" t="s">
         <v>163</v>
@@ -5533,7 +5530,7 @@
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s">
         <v>105</v>
@@ -5553,10 +5550,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
@@ -5571,7 +5568,7 @@
         <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
         <v>163</v>
@@ -5586,16 +5583,16 @@
         <v>80</v>
       </c>
       <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" t="s">
         <v>263</v>
       </c>
-      <c r="M34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>264</v>
-      </c>
-      <c r="O34" t="s">
-        <v>265</v>
       </c>
       <c r="P34" t="s">
         <v>173</v>
@@ -5606,7 +5603,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -5621,7 +5618,7 @@
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -5639,19 +5636,19 @@
         <v>105</v>
       </c>
       <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" t="s">
+        <v>173</v>
+      </c>
+      <c r="P35" t="s">
         <v>268</v>
-      </c>
-      <c r="M35" t="s">
-        <v>105</v>
-      </c>
-      <c r="N35" t="s">
-        <v>224</v>
-      </c>
-      <c r="O35" t="s">
-        <v>173</v>
-      </c>
-      <c r="P35" t="s">
-        <v>269</v>
       </c>
       <c r="Q35" t="s">
         <v>173</v>
@@ -5662,7 +5659,7 @@
         <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -5710,7 +5707,7 @@
         <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5771,10 +5768,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
         <v>173</v>
@@ -5866,7 +5863,7 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O39" t="s">
         <v>173</v>
@@ -5883,10 +5880,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
@@ -5901,7 +5898,7 @@
         <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
         <v>163</v>
@@ -5916,16 +5913,16 @@
         <v>80</v>
       </c>
       <c r="L40" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" t="s">
         <v>276</v>
       </c>
-      <c r="M40" t="s">
-        <v>105</v>
-      </c>
-      <c r="N40" t="s">
-        <v>277</v>
-      </c>
       <c r="O40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P40" t="s">
         <v>173</v>
@@ -5939,10 +5936,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -6051,10 +6048,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
@@ -6066,10 +6063,10 @@
         <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
@@ -6084,13 +6081,13 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" t="s">
         <v>281</v>
-      </c>
-      <c r="M43" t="s">
-        <v>105</v>
-      </c>
-      <c r="N43" t="s">
-        <v>282</v>
       </c>
       <c r="O43" t="s">
         <v>173</v>
@@ -6107,10 +6104,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
         <v>173</v>
@@ -6163,10 +6160,10 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
@@ -6178,10 +6175,10 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H45" t="s">
         <v>163</v>
@@ -6196,13 +6193,13 @@
         <v>80</v>
       </c>
       <c r="L45" t="s">
+        <v>285</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s">
         <v>286</v>
-      </c>
-      <c r="M45" t="s">
-        <v>105</v>
-      </c>
-      <c r="N45" t="s">
-        <v>287</v>
       </c>
       <c r="O45" t="s">
         <v>173</v>
@@ -6219,10 +6216,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
         <v>173</v>
@@ -6331,10 +6328,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s">
         <v>289</v>
-      </c>
-      <c r="B48" t="s">
-        <v>290</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
@@ -6346,10 +6343,10 @@
         <v>105</v>
       </c>
       <c r="F48" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" t="s">
         <v>291</v>
-      </c>
-      <c r="G48" t="s">
-        <v>292</v>
       </c>
       <c r="H48" t="s">
         <v>163</v>
@@ -6364,7 +6361,7 @@
         <v>105</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M48" t="s">
         <v>105</v>
@@ -6387,10 +6384,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
         <v>294</v>
-      </c>
-      <c r="B49" t="s">
-        <v>295</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -6443,10 +6440,10 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
@@ -6458,10 +6455,10 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
         <v>297</v>
-      </c>
-      <c r="G50" t="s">
-        <v>298</v>
       </c>
       <c r="H50" t="s">
         <v>163</v>
@@ -6476,7 +6473,7 @@
         <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M50" t="s">
         <v>105</v>
@@ -6499,10 +6496,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
@@ -6517,7 +6514,7 @@
         <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H51" t="s">
         <v>73</v>
@@ -6532,19 +6529,19 @@
         <v>80</v>
       </c>
       <c r="L51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M51" t="s">
         <v>80</v>
       </c>
       <c r="N51" t="s">
+        <v>300</v>
+      </c>
+      <c r="O51" t="s">
+        <v>173</v>
+      </c>
+      <c r="P51" t="s">
         <v>301</v>
-      </c>
-      <c r="O51" t="s">
-        <v>173</v>
-      </c>
-      <c r="P51" t="s">
-        <v>302</v>
       </c>
       <c r="Q51" t="s">
         <v>173</v>
@@ -6555,10 +6552,10 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" t="s">
         <v>303</v>
-      </c>
-      <c r="B52" t="s">
-        <v>304</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
@@ -6570,10 +6567,10 @@
         <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
         <v>163</v>
@@ -6588,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="L52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M52" t="s">
         <v>105</v>
@@ -6611,10 +6608,10 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
         <v>307</v>
-      </c>
-      <c r="B53" t="s">
-        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
@@ -6629,7 +6626,7 @@
         <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H53" t="s">
         <v>163</v>
@@ -6644,13 +6641,13 @@
         <v>80</v>
       </c>
       <c r="L53" t="s">
+        <v>309</v>
+      </c>
+      <c r="M53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" t="s">
         <v>310</v>
-      </c>
-      <c r="M53" t="s">
-        <v>80</v>
-      </c>
-      <c r="N53" t="s">
-        <v>311</v>
       </c>
       <c r="O53" t="s">
         <v>173</v>
@@ -6667,10 +6664,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -6798,7 +6795,7 @@
         <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
@@ -6807,7 +6804,7 @@
         <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -6815,10 +6812,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6831,16 +6828,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
         <v>313</v>
-      </c>
-      <c r="B4" t="s">
-        <v>314</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
         <v>163</v>
@@ -6855,27 +6852,27 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>316</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
@@ -6890,13 +6887,13 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -6907,16 +6904,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
         <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>180</v>
@@ -6931,13 +6928,13 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -6946,7 +6943,7 @@
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6995,10 +6992,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>173</v>
@@ -7039,10 +7036,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -7127,16 +7124,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
         <v>163</v>
@@ -7151,13 +7148,13 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L11" t="s">
         <v>173</v>
@@ -7268,16 +7265,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s">
         <v>325</v>
-      </c>
-      <c r="B14" t="s">
-        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
         <v>163</v>
@@ -7292,13 +7289,13 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
@@ -7315,16 +7312,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
         <v>329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" t="s">
         <v>163</v>
@@ -7339,7 +7336,7 @@
         <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
@@ -7360,7 +7357,7 @@
         <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -7415,16 +7412,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
         <v>333</v>
-      </c>
-      <c r="B17" t="s">
-        <v>334</v>
       </c>
       <c r="C17" t="s">
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
         <v>163</v>
@@ -7439,13 +7436,13 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L17" t="s">
         <v>105</v>
@@ -7465,16 +7462,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
@@ -7489,7 +7486,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -7515,10 +7512,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
         <v>173</v>
@@ -7618,13 +7615,13 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
         <v>163</v>
@@ -7639,7 +7636,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
@@ -7660,15 +7657,15 @@
         <v>173</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>173</v>
@@ -7715,16 +7712,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
         <v>248</v>
-      </c>
-      <c r="B23" t="s">
-        <v>249</v>
       </c>
       <c r="C23" t="s">
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
         <v>180</v>
@@ -7739,14 +7736,14 @@
         <v>105</v>
       </c>
       <c r="I23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
         <v>252</v>
       </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" t="s">
-        <v>253</v>
-      </c>
       <c r="L23" t="s">
         <v>105</v>
       </c>
@@ -7760,21 +7757,21 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" t="s">
         <v>340</v>
-      </c>
-      <c r="B24" t="s">
-        <v>341</v>
       </c>
       <c r="C24" t="s">
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -7789,13 +7786,13 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
         <v>343</v>
-      </c>
-      <c r="J24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" t="s">
-        <v>344</v>
       </c>
       <c r="L24" t="s">
         <v>105</v>
@@ -7915,10 +7912,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
         <v>254</v>
-      </c>
-      <c r="B27" t="s">
-        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>173</v>
@@ -7965,16 +7962,16 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
         <v>257</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
@@ -7989,7 +7986,7 @@
         <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
@@ -8010,7 +8007,7 @@
         <v>173</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8024,7 +8021,7 @@
         <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
         <v>180</v>
@@ -8063,15 +8060,15 @@
         <v>173</v>
       </c>
       <c r="Q29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
         <v>173</v>
@@ -8124,7 +8121,7 @@
         <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -8172,21 +8169,21 @@
         <v>173</v>
       </c>
       <c r="R31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" t="s">
         <v>348</v>
-      </c>
-      <c r="B32" t="s">
-        <v>349</v>
       </c>
       <c r="C32" t="s">
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" t="s">
         <v>180</v>
@@ -8201,31 +8198,31 @@
         <v>80</v>
       </c>
       <c r="I32" t="s">
+        <v>350</v>
+      </c>
+      <c r="J32" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" t="s">
         <v>351</v>
       </c>
-      <c r="J32" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" t="s">
         <v>352</v>
-      </c>
-      <c r="L32" t="s">
-        <v>105</v>
-      </c>
-      <c r="M32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N32" t="s">
-        <v>173</v>
-      </c>
-      <c r="O32" t="s">
-        <v>173</v>
-      </c>
-      <c r="P32" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>353</v>
       </c>
       <c r="R32" t="s">
         <v>173</v>
@@ -8289,16 +8286,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" t="s">
         <v>354</v>
-      </c>
-      <c r="B34" t="s">
-        <v>355</v>
       </c>
       <c r="C34" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E34" t="s">
         <v>163</v>
@@ -8313,22 +8310,22 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
+        <v>356</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" t="s">
         <v>357</v>
-      </c>
-      <c r="J34" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" t="s">
-        <v>273</v>
-      </c>
-      <c r="L34" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" t="s">
-        <v>358</v>
       </c>
       <c r="O34" t="s">
         <v>80</v>
@@ -8345,16 +8342,16 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
@@ -8369,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
@@ -8401,37 +8398,37 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" t="s">
         <v>362</v>
-      </c>
-      <c r="B36" t="s">
-        <v>363</v>
       </c>
       <c r="C36" t="s">
         <v>161</v>
       </c>
       <c r="D36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" t="s">
         <v>364</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
         <v>365</v>
       </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>366</v>
-      </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
         <v>105</v>
@@ -8513,16 +8510,16 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
@@ -8537,13 +8534,13 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" t="s">
         <v>281</v>
-      </c>
-      <c r="J38" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" t="s">
-        <v>282</v>
       </c>
       <c r="L38" t="s">
         <v>105</v>
@@ -8569,10 +8566,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
         <v>173</v>
@@ -8681,16 +8678,16 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
@@ -8705,7 +8702,7 @@
         <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
         <v>105</v>
@@ -8726,7 +8723,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q41" t="s">
         <v>173</v>
@@ -8737,10 +8734,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="s">
         <v>294</v>
-      </c>
-      <c r="B42" t="s">
-        <v>295</v>
       </c>
       <c r="C42" t="s">
         <v>173</v>
@@ -8793,16 +8790,16 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C43" t="s">
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
         <v>163</v>
@@ -8817,7 +8814,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
@@ -8849,16 +8846,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
         <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8873,31 +8870,31 @@
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J44" t="s">
         <v>105</v>
       </c>
       <c r="K44" t="s">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" t="s">
+        <v>173</v>
+      </c>
+      <c r="O44" t="s">
+        <v>173</v>
+      </c>
+      <c r="P44" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q44" t="s">
         <v>301</v>
-      </c>
-      <c r="L44" t="s">
-        <v>80</v>
-      </c>
-      <c r="M44" t="s">
-        <v>105</v>
-      </c>
-      <c r="N44" t="s">
-        <v>173</v>
-      </c>
-      <c r="O44" t="s">
-        <v>173</v>
-      </c>
-      <c r="P44" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>302</v>
       </c>
       <c r="R44" t="s">
         <v>173</v>
@@ -8905,16 +8902,16 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" t="s">
         <v>303</v>
-      </c>
-      <c r="B45" t="s">
-        <v>304</v>
       </c>
       <c r="C45" t="s">
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" t="s">
         <v>163</v>
@@ -8929,7 +8926,7 @@
         <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
@@ -8950,7 +8947,7 @@
         <v>173</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q45" t="s">
         <v>173</v>
@@ -8961,16 +8958,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" t="s">
         <v>307</v>
-      </c>
-      <c r="B46" t="s">
-        <v>308</v>
       </c>
       <c r="C46" t="s">
         <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46" t="s">
         <v>163</v>
@@ -8985,13 +8982,13 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
         <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
@@ -9017,16 +9014,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" t="s">
         <v>368</v>
-      </c>
-      <c r="B47" t="s">
-        <v>369</v>
       </c>
       <c r="C47" t="s">
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -9041,13 +9038,13 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
+        <v>370</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s">
         <v>371</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" t="s">
-        <v>372</v>
       </c>
       <c r="L47" t="s">
         <v>105</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>acl</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>ual : year_created</t>
+  </si>
+  <si>
+    <t>Sort Year</t>
   </si>
   <si>
     <t>fedora : hasVersions</t>
@@ -5397,37 +5400,37 @@
         <v>254</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>173</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s">
         <v>173</v>
       </c>
       <c r="M31" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="N31" t="s">
         <v>173</v>
@@ -5439,15 +5442,15 @@
         <v>173</v>
       </c>
       <c r="Q31" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
         <v>173</v>
@@ -5497,10 +5500,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
@@ -5515,7 +5518,7 @@
         <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H33" t="s">
         <v>163</v>
@@ -5530,7 +5533,7 @@
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s">
         <v>105</v>
@@ -5550,10 +5553,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
@@ -5568,7 +5571,7 @@
         <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H34" t="s">
         <v>163</v>
@@ -5583,16 +5586,16 @@
         <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s">
         <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P34" t="s">
         <v>173</v>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -5618,7 +5621,7 @@
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -5636,7 +5639,7 @@
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s">
         <v>105</v>
@@ -5648,7 +5651,7 @@
         <v>173</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q35" t="s">
         <v>173</v>
@@ -5659,7 +5662,7 @@
         <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -5707,7 +5710,7 @@
         <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5768,10 +5771,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>173</v>
@@ -5863,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
         <v>173</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
@@ -5898,7 +5901,7 @@
         <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
         <v>163</v>
@@ -5913,16 +5916,16 @@
         <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s">
         <v>105</v>
       </c>
       <c r="N40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P40" t="s">
         <v>173</v>
@@ -5936,10 +5939,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -6048,10 +6051,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
@@ -6066,7 +6069,7 @@
         <v>211</v>
       </c>
       <c r="G43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
@@ -6081,13 +6084,13 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s">
         <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
         <v>173</v>
@@ -6104,10 +6107,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
         <v>173</v>
@@ -6160,10 +6163,10 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
@@ -6178,7 +6181,7 @@
         <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
         <v>163</v>
@@ -6193,13 +6196,13 @@
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s">
         <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O45" t="s">
         <v>173</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
         <v>173</v>
@@ -6328,10 +6331,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
@@ -6343,10 +6346,10 @@
         <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
         <v>163</v>
@@ -6361,7 +6364,7 @@
         <v>105</v>
       </c>
       <c r="L48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M48" t="s">
         <v>105</v>
@@ -6384,10 +6387,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -6440,10 +6443,10 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
@@ -6455,10 +6458,10 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
         <v>163</v>
@@ -6473,7 +6476,7 @@
         <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M50" t="s">
         <v>105</v>
@@ -6496,10 +6499,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
@@ -6514,7 +6517,7 @@
         <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
         <v>73</v>
@@ -6535,13 +6538,13 @@
         <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51" t="s">
         <v>173</v>
       </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q51" t="s">
         <v>173</v>
@@ -6552,10 +6555,10 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
@@ -6570,7 +6573,7 @@
         <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H52" t="s">
         <v>163</v>
@@ -6585,7 +6588,7 @@
         <v>105</v>
       </c>
       <c r="L52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s">
         <v>105</v>
@@ -6608,10 +6611,10 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
@@ -6626,7 +6629,7 @@
         <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>163</v>
@@ -6641,13 +6644,13 @@
         <v>80</v>
       </c>
       <c r="L53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s">
         <v>80</v>
       </c>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s">
         <v>173</v>
@@ -6664,10 +6667,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -6828,16 +6831,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
         <v>163</v>
@@ -6852,13 +6855,13 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6904,16 +6907,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>180</v>
@@ -6928,13 +6931,13 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>320</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>319</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -6992,10 +6995,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>173</v>
@@ -7036,10 +7039,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -7124,16 +7127,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
         <v>163</v>
@@ -7148,13 +7151,13 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>323</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" t="s">
-        <v>322</v>
       </c>
       <c r="L11" t="s">
         <v>173</v>
@@ -7265,16 +7268,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
         <v>163</v>
@@ -7289,13 +7292,13 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
         <v>327</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>326</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
@@ -7312,16 +7315,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
         <v>163</v>
@@ -7336,7 +7339,7 @@
         <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
@@ -7412,16 +7415,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
         <v>163</v>
@@ -7436,13 +7439,13 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
         <v>335</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
-        <v>334</v>
       </c>
       <c r="L17" t="s">
         <v>105</v>
@@ -7462,16 +7465,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
@@ -7486,7 +7489,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -7762,16 +7765,16 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C24" t="s">
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -7786,13 +7789,13 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L24" t="s">
         <v>105</v>
@@ -7915,46 +7918,46 @@
         <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
         <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
         <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
         <v>173</v>
       </c>
       <c r="L27" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
         <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s">
         <v>173</v>
@@ -7962,16 +7965,16 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
@@ -7986,7 +7989,7 @@
         <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
@@ -8021,7 +8024,7 @@
         <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E29" t="s">
         <v>180</v>
@@ -8060,7 +8063,7 @@
         <v>173</v>
       </c>
       <c r="Q29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -8121,7 +8124,7 @@
         <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -8169,21 +8172,21 @@
         <v>173</v>
       </c>
       <c r="R31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
         <v>180</v>
@@ -8198,13 +8201,13 @@
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J32" t="s">
         <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s">
         <v>105</v>
@@ -8222,7 +8225,7 @@
         <v>173</v>
       </c>
       <c r="Q32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R32" t="s">
         <v>173</v>
@@ -8286,16 +8289,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
         <v>163</v>
@@ -8310,13 +8313,13 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
         <v>173</v>
@@ -8325,7 +8328,7 @@
         <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s">
         <v>80</v>
@@ -8342,16 +8345,16 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
@@ -8366,7 +8369,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
@@ -8398,37 +8401,37 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
         <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
         <v>364</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>365</v>
-      </c>
-      <c r="J36" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" t="s">
-        <v>363</v>
       </c>
       <c r="L36" t="s">
         <v>105</v>
@@ -8510,16 +8513,16 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
@@ -8534,13 +8537,13 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
         <v>105</v>
@@ -8566,10 +8569,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" t="s">
         <v>173</v>
@@ -8678,16 +8681,16 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
@@ -8702,7 +8705,7 @@
         <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
         <v>105</v>
@@ -8723,7 +8726,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q41" t="s">
         <v>173</v>
@@ -8734,10 +8737,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C42" t="s">
         <v>173</v>
@@ -8790,16 +8793,16 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
         <v>163</v>
@@ -8814,7 +8817,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
@@ -8846,16 +8849,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
         <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8876,7 +8879,7 @@
         <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
@@ -8894,7 +8897,7 @@
         <v>173</v>
       </c>
       <c r="Q44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R44" t="s">
         <v>173</v>
@@ -8902,16 +8905,16 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s">
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
         <v>163</v>
@@ -8926,7 +8929,7 @@
         <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
@@ -8958,16 +8961,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
         <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
         <v>163</v>
@@ -8982,13 +8985,13 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
         <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
@@ -9014,16 +9017,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -9038,13 +9041,13 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J47" t="s">
         <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
         <v>105</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -5686,7 +5686,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
         <v>80</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>acl</t>
   </si>
@@ -513,7 +513,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dccreator</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dccreator</t>
   </si>
   <si>
     <t>dcterms : description</t>
@@ -522,7 +522,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsdescription</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dctermsdescription</t>
   </si>
   <si>
     <t>dcterms : title</t>
@@ -531,7 +531,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermstitle</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dctermstitle</t>
   </si>
   <si>
     <t>required for communties</t>
@@ -564,7 +564,7 @@
     <t>auto</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualdepositor</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#ualdepositor</t>
   </si>
   <si>
     <t>legacy property; usage: admin email.</t>
@@ -597,6 +597,18 @@
     <t>comment</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dccreator</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dctermsdescription</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dctermstitle</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#ualdepositor</t>
+  </si>
+  <si>
     <t>pcdm : memberOf</t>
   </si>
   <si>
@@ -630,7 +642,7 @@
     <t>rights</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dcrights</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dcrights</t>
   </si>
   <si>
     <t>info : downloadFilename</t>
@@ -645,7 +657,7 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dccontributor</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dccontributor</t>
   </si>
   <si>
     <t>additional contributors</t>
@@ -660,7 +672,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermslanguage</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermslanguage</t>
   </si>
   <si>
     <t>scholar : onBehalfOf</t>
@@ -678,7 +690,7 @@
     <t>northern north america filename</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualnnafile</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualnnafile</t>
   </si>
   <si>
     <t>dcterms : type</t>
@@ -687,7 +699,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermstype</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstype</t>
   </si>
   <si>
     <t>type of item</t>
@@ -702,7 +714,7 @@
     <t>license</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermslicense</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermslicense</t>
   </si>
   <si>
     <t>license information</t>
@@ -711,6 +723,9 @@
     <t>{u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc-nd/3.0/', u'label': u'Attribution-NonCommercial-NoDerivs 3.0 Unported'}</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstitle</t>
+  </si>
+  <si>
     <t>ual : ark</t>
   </si>
   <si>
@@ -720,7 +735,7 @@
     <t>archival resource key id</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualark</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualark</t>
   </si>
   <si>
     <t>premis : hasSize</t>
@@ -735,7 +750,7 @@
     <t>fedora 3 uuid</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualfedora3uuid</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualfedora3uuid</t>
   </si>
   <si>
     <t>dcterms : created</t>
@@ -744,7 +759,10 @@
     <t>date created</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermscreated</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermscreated</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsdescription</t>
   </si>
   <si>
     <t>info : isPartOf</t>
@@ -759,7 +777,7 @@
     <t>northern north america item id</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualnnaitem</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualnnaitem</t>
   </si>
   <si>
     <t>prism : doi</t>
@@ -774,18 +792,18 @@
     <t>digital object identifier</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#prismdoi</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#prismdoi</t>
   </si>
   <si>
     <t>doi</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualdepositor</t>
+  </si>
+  <si>
     <t>ual : sort_year</t>
   </si>
   <si>
-    <t>ual : year_created</t>
-  </si>
-  <si>
     <t>Sort Year</t>
   </si>
   <si>
@@ -801,7 +819,7 @@
     <t>unicorn</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualunicorn</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualunicorn</t>
   </si>
   <si>
     <t>dcterms : spatial</t>
@@ -810,7 +828,7 @@
     <t>spatial coverage</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsspatial</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsspatial</t>
   </si>
   <si>
     <t>place</t>
@@ -825,7 +843,7 @@
     <t>'draft', 'submitted', 'published' to be selected and concatenated on the end of dc:type when dc:type is 'article'</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#bibostatus</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#bibostatus</t>
   </si>
   <si>
     <t>{u'onForm': u'false', u'uri': u'http://purl.org/ontology/bibo/status#accepted', u'label': u'accepted'}</t>
@@ -840,6 +858,9 @@
     <t>scholar : proxyDepositor</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dccreator</t>
+  </si>
+  <si>
     <t>author or creator</t>
   </si>
   <si>
@@ -849,7 +870,7 @@
     <t>temporal coverage</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermstemporal</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstemporal</t>
   </si>
   <si>
     <t>time</t>
@@ -864,7 +885,7 @@
     <t>is version of</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsisversionof</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsisversionof</t>
   </si>
   <si>
     <t>citation for previous publication</t>
@@ -879,7 +900,7 @@
     <t>relation</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsrelation</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsrelation</t>
   </si>
   <si>
     <t>link to related item</t>
@@ -900,7 +921,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsidentifier</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsidentifier</t>
   </si>
   <si>
     <t>ual : ingestBatch</t>
@@ -918,7 +939,7 @@
     <t>alternative title</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsalternative</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsalternative</t>
   </si>
   <si>
     <t>dcterms : language</t>
@@ -939,7 +960,7 @@
     <t>fedora 3 handle</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualfedora3handle</t>
+    <t>https://github.com/ualbertalib/metadata/blob/master/data_dictionary/profile_generic.md#ualfedora3handle</t>
   </si>
   <si>
     <t>dc : subject</t>
@@ -951,7 +972,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dcsubject</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dcsubject</t>
   </si>
   <si>
     <t>subject/keyword</t>
@@ -969,12 +990,15 @@
     <t>commitee member</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualcommiteeember</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualcommiteeember</t>
   </si>
   <si>
     <t>examining committee member and department</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dcrights</t>
+  </si>
+  <si>
     <t>ual : graduationDate</t>
   </si>
   <si>
@@ -984,7 +1008,7 @@
     <t>graduation date</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualgraduationdate</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualgraduationdate</t>
   </si>
   <si>
     <t>dcterms : abstract</t>
@@ -993,7 +1017,10 @@
     <t>abstract</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsabstract</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsabstract</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermstitle</t>
   </si>
   <si>
     <t>ual : department</t>
@@ -1005,7 +1032,7 @@
     <t>department</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualdepartment</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdepartment</t>
   </si>
   <si>
     <t>ual : proquest</t>
@@ -1017,7 +1044,7 @@
     <t>proquest</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualproquest</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualproquest</t>
   </si>
   <si>
     <t>ual : specialization</t>
@@ -1029,7 +1056,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualspecialization</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualspecialization</t>
   </si>
   <si>
     <t>dcterms : dateAccepted</t>
@@ -1038,7 +1065,13 @@
     <t>date accepted</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsdateaccepted</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsdateaccepted</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualfedora3uuid</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#prismdoi</t>
   </si>
   <si>
     <t>ual : supervisor</t>
@@ -1050,12 +1083,18 @@
     <t>supervisor</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualsupervisor</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualsupervisor</t>
   </si>
   <si>
     <t>supervisor and department</t>
   </si>
   <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdepositor</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualunicorn</t>
+  </si>
+  <si>
     <t>rdf Type</t>
   </si>
   <si>
@@ -1074,7 +1113,7 @@
     <t>institution</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualinstitution</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualinstitution</t>
   </si>
   <si>
     <t>degree grantor</t>
@@ -1092,7 +1131,7 @@
     <t>dissertant</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualdissertant</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdissertant</t>
   </si>
   <si>
     <t>dc : Creator</t>
@@ -1104,7 +1143,7 @@
     <t>date submitted</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dctermsdatesubmitted</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsdatesubmitted</t>
   </si>
   <si>
     <t>bibo : degree</t>
@@ -1119,10 +1158,25 @@
     <t>enumerated text</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#bibodegree</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#dcubject</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#bibodegree</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsisversionof</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsidentifier</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsalternative</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermslanguage</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualfedora3handle</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dcubject</t>
   </si>
   <si>
     <t>ual : thesisLevel</t>
@@ -1134,7 +1188,7 @@
     <t>thesis level</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary#ualthesislevel</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualthesislevel</t>
   </si>
   <si>
     <t>degree level</t>
@@ -3247,7 +3301,7 @@
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -3285,7 +3339,7 @@
         <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -3329,7 +3383,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L6" t="s">
         <v>80</v>
@@ -3564,7 +3618,7 @@
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -3769,10 +3823,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -3814,7 +3868,7 @@
         <v>173</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4047,10 +4101,10 @@
         <v>153</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
         <v>152</v>
@@ -4061,18 +4115,18 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4085,10 +4139,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -4100,10 +4154,10 @@
         <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
         <v>163</v>
@@ -4118,21 +4172,21 @@
         <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
         <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
@@ -4217,10 +4271,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -4235,7 +4289,7 @@
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
         <v>163</v>
@@ -4250,13 +4304,13 @@
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
         <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
         <v>159</v>
@@ -4264,10 +4318,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -4279,10 +4333,10 @@
         <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
@@ -4297,13 +4351,13 @@
         <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
         <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
         <v>173</v>
@@ -4311,10 +4365,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -4405,10 +4459,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -4420,10 +4474,10 @@
         <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
@@ -4438,7 +4492,7 @@
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M12" t="s">
         <v>105</v>
@@ -4452,10 +4506,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -4470,7 +4524,7 @@
         <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
@@ -4485,19 +4539,19 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O13" t="s">
         <v>173</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4552,10 +4606,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -4567,10 +4621,10 @@
         <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4585,19 +4639,19 @@
         <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M15" t="s">
         <v>105</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O15" t="s">
         <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4685,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -4705,10 +4759,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
@@ -4723,7 +4777,7 @@
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H18" t="s">
         <v>163</v>
@@ -4738,7 +4792,7 @@
         <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M18" t="s">
         <v>105</v>
@@ -4811,10 +4865,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -4864,10 +4918,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
         <v>173</v>
@@ -4973,7 +5027,7 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
@@ -4985,10 +5039,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
         <v>163</v>
@@ -5003,7 +5057,7 @@
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s">
         <v>105</v>
@@ -5023,10 +5077,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
@@ -5041,7 +5095,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>
@@ -5056,13 +5110,13 @@
         <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s">
         <v>173</v>
@@ -5109,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s">
         <v>105</v>
@@ -5129,10 +5183,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
         <v>173</v>
@@ -5182,10 +5236,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
@@ -5197,10 +5251,10 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
         <v>163</v>
@@ -5215,7 +5269,7 @@
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s">
         <v>105</v>
@@ -5235,10 +5289,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
         <v>105</v>
@@ -5250,10 +5304,10 @@
         <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
         <v>180</v>
@@ -5268,13 +5322,13 @@
         <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s">
         <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
         <v>173</v>
@@ -5321,7 +5375,7 @@
         <v>105</v>
       </c>
       <c r="L29" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s">
         <v>105</v>
@@ -5394,10 +5448,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
@@ -5412,7 +5466,7 @@
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H31" t="s">
         <v>180</v>
@@ -5447,10 +5501,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
         <v>173</v>
@@ -5500,10 +5554,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
@@ -5515,10 +5569,10 @@
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H33" t="s">
         <v>163</v>
@@ -5533,7 +5587,7 @@
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s">
         <v>105</v>
@@ -5553,10 +5607,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
@@ -5571,7 +5625,7 @@
         <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H34" t="s">
         <v>163</v>
@@ -5586,16 +5640,16 @@
         <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s">
         <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P34" t="s">
         <v>173</v>
@@ -5606,7 +5660,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -5621,7 +5675,7 @@
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -5639,19 +5693,19 @@
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s">
         <v>105</v>
       </c>
       <c r="N35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
         <v>173</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q35" t="s">
         <v>173</v>
@@ -5659,10 +5713,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -5710,7 +5764,7 @@
         <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5771,10 +5825,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
         <v>173</v>
@@ -5860,13 +5914,13 @@
         <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s">
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s">
         <v>173</v>
@@ -5883,10 +5937,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
@@ -5901,7 +5955,7 @@
         <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H40" t="s">
         <v>163</v>
@@ -5916,16 +5970,16 @@
         <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s">
         <v>105</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P40" t="s">
         <v>173</v>
@@ -5939,10 +5993,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -6051,10 +6105,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
@@ -6066,10 +6120,10 @@
         <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
@@ -6084,13 +6138,13 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M43" t="s">
         <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="O43" t="s">
         <v>173</v>
@@ -6107,10 +6161,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s">
         <v>173</v>
@@ -6163,10 +6217,10 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
@@ -6178,10 +6232,10 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
         <v>163</v>
@@ -6196,13 +6250,13 @@
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s">
         <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O45" t="s">
         <v>173</v>
@@ -6219,10 +6273,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s">
         <v>173</v>
@@ -6331,10 +6385,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
@@ -6346,10 +6400,10 @@
         <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H48" t="s">
         <v>163</v>
@@ -6364,7 +6418,7 @@
         <v>105</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M48" t="s">
         <v>105</v>
@@ -6387,10 +6441,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -6443,10 +6497,10 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
@@ -6458,10 +6512,10 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G50" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H50" t="s">
         <v>163</v>
@@ -6476,7 +6530,7 @@
         <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M50" t="s">
         <v>105</v>
@@ -6499,10 +6553,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
@@ -6517,7 +6571,7 @@
         <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H51" t="s">
         <v>73</v>
@@ -6532,19 +6586,19 @@
         <v>80</v>
       </c>
       <c r="L51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s">
         <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s">
         <v>173</v>
       </c>
       <c r="P51" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q51" t="s">
         <v>173</v>
@@ -6555,10 +6609,10 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
@@ -6570,10 +6624,10 @@
         <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G52" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H52" t="s">
         <v>163</v>
@@ -6588,7 +6642,7 @@
         <v>105</v>
       </c>
       <c r="L52" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M52" t="s">
         <v>105</v>
@@ -6611,10 +6665,10 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
@@ -6629,7 +6683,7 @@
         <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H53" t="s">
         <v>163</v>
@@ -6644,13 +6698,13 @@
         <v>80</v>
       </c>
       <c r="L53" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M53" t="s">
         <v>80</v>
       </c>
       <c r="N53" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="O53" t="s">
         <v>173</v>
@@ -6667,10 +6721,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
@@ -6798,7 +6852,7 @@
         <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
@@ -6807,7 +6861,7 @@
         <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -6815,10 +6869,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6831,16 +6885,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
         <v>163</v>
@@ -6855,27 +6909,27 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
@@ -6890,13 +6944,13 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -6907,16 +6961,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
         <v>180</v>
@@ -6931,13 +6985,13 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -6946,7 +7000,7 @@
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6995,10 +7049,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
         <v>173</v>
@@ -7039,10 +7093,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
         <v>173</v>
@@ -7127,16 +7181,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
         <v>163</v>
@@ -7151,13 +7205,13 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L11" t="s">
         <v>173</v>
@@ -7245,7 +7299,7 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -7268,16 +7322,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
         <v>163</v>
@@ -7292,13 +7346,13 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
@@ -7315,16 +7369,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
         <v>163</v>
@@ -7339,7 +7393,7 @@
         <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
@@ -7360,7 +7414,7 @@
         <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -7415,16 +7469,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
         <v>163</v>
@@ -7439,13 +7493,13 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L17" t="s">
         <v>105</v>
@@ -7465,16 +7519,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
         <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
@@ -7489,7 +7543,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -7515,10 +7569,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>173</v>
@@ -7618,13 +7672,13 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
         <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
         <v>163</v>
@@ -7639,7 +7693,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
@@ -7660,15 +7714,15 @@
         <v>173</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
         <v>173</v>
@@ -7715,16 +7769,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>180</v>
@@ -7739,13 +7793,13 @@
         <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
         <v>105</v>
@@ -7760,21 +7814,21 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -7789,13 +7843,13 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L24" t="s">
         <v>105</v>
@@ -7839,7 +7893,7 @@
         <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="J25" t="s">
         <v>105</v>
@@ -7915,7 +7969,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
         <v>173</v>
@@ -7924,7 +7978,7 @@
         <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
         <v>180</v>
@@ -7965,16 +8019,16 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
@@ -7989,7 +8043,7 @@
         <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
@@ -8010,7 +8064,7 @@
         <v>173</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8024,7 +8078,7 @@
         <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E29" t="s">
         <v>180</v>
@@ -8063,15 +8117,15 @@
         <v>173</v>
       </c>
       <c r="Q29" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
         <v>173</v>
@@ -8121,10 +8175,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -8172,21 +8226,21 @@
         <v>173</v>
       </c>
       <c r="R31" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C32" t="s">
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
         <v>180</v>
@@ -8201,13 +8255,13 @@
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J32" t="s">
         <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L32" t="s">
         <v>105</v>
@@ -8225,7 +8279,7 @@
         <v>173</v>
       </c>
       <c r="Q32" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="R32" t="s">
         <v>173</v>
@@ -8289,16 +8343,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
         <v>163</v>
@@ -8313,13 +8367,13 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
         <v>173</v>
@@ -8328,7 +8382,7 @@
         <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="O34" t="s">
         <v>80</v>
@@ -8345,16 +8399,16 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
@@ -8369,7 +8423,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
@@ -8401,19 +8455,19 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C36" t="s">
         <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
         <v>80</v>
@@ -8425,13 +8479,13 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s">
         <v>105</v>
@@ -8513,16 +8567,16 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
@@ -8537,13 +8591,13 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
         <v>105</v>
@@ -8569,10 +8623,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
         <v>173</v>
@@ -8681,16 +8735,16 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
@@ -8705,7 +8759,7 @@
         <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
         <v>105</v>
@@ -8726,7 +8780,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q41" t="s">
         <v>173</v>
@@ -8737,10 +8791,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
         <v>173</v>
@@ -8793,16 +8847,16 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s">
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
         <v>163</v>
@@ -8817,7 +8871,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
@@ -8849,16 +8903,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s">
         <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8873,13 +8927,13 @@
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
         <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
@@ -8897,7 +8951,7 @@
         <v>173</v>
       </c>
       <c r="Q44" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="R44" t="s">
         <v>173</v>
@@ -8905,16 +8959,16 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E45" t="s">
         <v>163</v>
@@ -8929,7 +8983,7 @@
         <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
@@ -8950,7 +9004,7 @@
         <v>173</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q45" t="s">
         <v>173</v>
@@ -8961,16 +9015,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C46" t="s">
         <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E46" t="s">
         <v>163</v>
@@ -8985,13 +9039,13 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
         <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
@@ -9017,16 +9071,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -9041,13 +9095,13 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="J47" t="s">
         <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
         <v>105</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
   <si>
     <t>acl</t>
   </si>
@@ -480,10 +480,16 @@
     <t>search</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>displayLabel</t>
   </si>
   <si>
-    <t>comments</t>
+    <t>http://www.ebu.ch/metadata/ontologies/ebucore/ebucore#dateIngested</t>
+  </si>
+  <si>
+    <t>info : createdDate</t>
   </si>
   <si>
     <t>rdf : type</t>
@@ -513,7 +519,52 @@
     <t>text</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dccreator</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dccreator</t>
+  </si>
+  <si>
+    <t>dcterms : title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermstitle</t>
+  </si>
+  <si>
+    <t>required for communties</t>
+  </si>
+  <si>
+    <t>fedora : createdBy</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>fedora : mixinTypes</t>
+  </si>
+  <si>
+    <t>fedora : uuid</t>
+  </si>
+  <si>
+    <t>ual : depositor</t>
+  </si>
+  <si>
+    <t>mrel : dpt</t>
+  </si>
+  <si>
+    <t>depositor</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualdepositor</t>
+  </si>
+  <si>
+    <t>legacy property; usage: admin email.</t>
+  </si>
+  <si>
+    <t>fedora : lastModified</t>
   </si>
   <si>
     <t>dcterms : description</t>
@@ -522,58 +573,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dctermsdescription</t>
-  </si>
-  <si>
-    <t>dcterms : title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#dctermstitle</t>
-  </si>
-  <si>
-    <t>required for communties</t>
-  </si>
-  <si>
-    <t>fedora : createdBy</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>fedora : mixinTypes</t>
-  </si>
-  <si>
-    <t>fedora : uuid</t>
-  </si>
-  <si>
-    <t>info : createdDate</t>
-  </si>
-  <si>
-    <t>ual : depositor</t>
-  </si>
-  <si>
-    <t>mrel : dpt</t>
-  </si>
-  <si>
-    <t>depositor</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_community.md#ualdepositor</t>
-  </si>
-  <si>
-    <t>legacy property; usage: admin email.</t>
-  </si>
-  <si>
-    <t>fedora : lastModified</t>
-  </si>
-  <si>
-    <t>fedora : created</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsdescription</t>
   </si>
   <si>
     <t>fedora : lastModifiedBy</t>
@@ -597,18 +597,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dccreator</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dctermsdescription</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#dctermstitle</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_collection.md#ualdepositor</t>
-  </si>
-  <si>
     <t>pcdm : memberOf</t>
   </si>
   <si>
@@ -630,19 +618,25 @@
     <t>premis : hasOriginalName</t>
   </si>
   <si>
+    <t>ual : sortYear</t>
+  </si>
+  <si>
+    <t>Sort Year</t>
+  </si>
+  <si>
     <t>dc : rights</t>
   </si>
   <si>
     <t>dcterms : rights</t>
   </si>
   <si>
+    <t>rights</t>
+  </si>
+  <si>
     <t>must have at least one of dc:rights or dcterms:license; cannot have both dc:rights and dcterms:license</t>
   </si>
   <si>
-    <t>rights</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dcrights</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dcrights</t>
   </si>
   <si>
     <t>info : downloadFilename</t>
@@ -657,7 +651,7 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dccontributor</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dccontributor</t>
   </si>
   <si>
     <t>additional contributors</t>
@@ -666,13 +660,13 @@
     <t>dcterms : source</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>relation, source, and isversionof will eventually be mapped together (to some extent)</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermslanguage</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermslanguage</t>
   </si>
   <si>
     <t>scholar : onBehalfOf</t>
@@ -684,13 +678,13 @@
     <t>ualid : halpern:nnafile</t>
   </si>
   <si>
+    <t>northern north america filename</t>
+  </si>
+  <si>
     <t>legacy property</t>
   </si>
   <si>
-    <t>northern north america filename</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualnnafile</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualnnafile</t>
   </si>
   <si>
     <t>dcterms : type</t>
@@ -699,7 +693,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstype</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermstype</t>
   </si>
   <si>
     <t>type of item</t>
@@ -714,7 +708,7 @@
     <t>license</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermslicense</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermslicense</t>
   </si>
   <si>
     <t>license information</t>
@@ -723,9 +717,6 @@
     <t>{u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc-nd/3.0/', u'label': u'Attribution-NonCommercial-NoDerivs 3.0 Unported'}</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstitle</t>
-  </si>
-  <si>
     <t>ual : ark</t>
   </si>
   <si>
@@ -735,7 +726,7 @@
     <t>archival resource key id</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualark</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualark</t>
   </si>
   <si>
     <t>premis : hasSize</t>
@@ -750,7 +741,7 @@
     <t>fedora 3 uuid</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualfedora3uuid</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualfedora3uuid</t>
   </si>
   <si>
     <t>dcterms : created</t>
@@ -759,10 +750,7 @@
     <t>date created</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermscreated</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsdescription</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermscreated</t>
   </si>
   <si>
     <t>info : isPartOf</t>
@@ -777,7 +765,7 @@
     <t>northern north america item id</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualnnaitem</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualnnaitem</t>
   </si>
   <si>
     <t>prism : doi</t>
@@ -786,27 +774,18 @@
     <t>ualid : doi</t>
   </si>
   <si>
+    <t>digital object identifier</t>
+  </si>
+  <si>
     <t>always doi (currently set to searchable (should this be changed?)</t>
   </si>
   <si>
-    <t>digital object identifier</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#prismdoi</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#prismdoi</t>
   </si>
   <si>
     <t>doi</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualdepositor</t>
-  </si>
-  <si>
-    <t>ual : sort_year</t>
-  </si>
-  <si>
-    <t>Sort Year</t>
-  </si>
-  <si>
     <t>fedora : hasVersions</t>
   </si>
   <si>
@@ -819,7 +798,7 @@
     <t>unicorn</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#ualunicorn</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualunicorn</t>
   </si>
   <si>
     <t>dcterms : spatial</t>
@@ -828,7 +807,7 @@
     <t>spatial coverage</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsspatial</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsspatial</t>
   </si>
   <si>
     <t>place</t>
@@ -843,7 +822,7 @@
     <t>'draft', 'submitted', 'published' to be selected and concatenated on the end of dc:type when dc:type is 'article'</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#bibostatus</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibostatus</t>
   </si>
   <si>
     <t>{u'onForm': u'false', u'uri': u'http://purl.org/ontology/bibo/status#accepted', u'label': u'accepted'}</t>
@@ -858,9 +837,6 @@
     <t>scholar : proxyDepositor</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dccreator</t>
-  </si>
-  <si>
     <t>author or creator</t>
   </si>
   <si>
@@ -870,7 +846,7 @@
     <t>temporal coverage</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermstemporal</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermstemporal</t>
   </si>
   <si>
     <t>time</t>
@@ -885,7 +861,7 @@
     <t>is version of</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsisversionof</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsisversionof</t>
   </si>
   <si>
     <t>citation for previous publication</t>
@@ -900,7 +876,7 @@
     <t>relation</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsrelation</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsrelation</t>
   </si>
   <si>
     <t>link to related item</t>
@@ -915,13 +891,13 @@
     <t>http://terms.library.library.ca/identifiers/ser</t>
   </si>
   <si>
+    <t>identifier</t>
+  </si>
+  <si>
     <t>often doi, but not always; legacy container for non-doi identifiers (not active in jupiter)</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsidentifier</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsidentifier</t>
   </si>
   <si>
     <t>ual : ingestBatch</t>
@@ -933,13 +909,13 @@
     <t>dcterms : alternative</t>
   </si>
   <si>
+    <t>alternative title</t>
+  </si>
+  <si>
     <t>what about this one?</t>
   </si>
   <si>
-    <t>alternative title</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dctermsalternative</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsalternative</t>
   </si>
   <si>
     <t>dcterms : language</t>
@@ -960,7 +936,7 @@
     <t>fedora 3 handle</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/blob/master/data_dictionary/profile_generic.md#ualfedora3handle</t>
+    <t>https://github.com/ualbertalib/metadata/blob/master/data_dictionary/jupiter_ontology.md#ualfedora3handle</t>
   </si>
   <si>
     <t>dc : subject</t>
@@ -972,7 +948,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_generic.md#dcsubject</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dcsubject</t>
   </si>
   <si>
     <t>subject/keyword</t>
@@ -990,15 +966,12 @@
     <t>commitee member</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualcommiteeember</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualcommiteeember</t>
   </si>
   <si>
     <t>examining committee member and department</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dcrights</t>
-  </si>
-  <si>
     <t>ual : graduationDate</t>
   </si>
   <si>
@@ -1008,7 +981,7 @@
     <t>graduation date</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualgraduationdate</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualgraduationdate</t>
   </si>
   <si>
     <t>dcterms : abstract</t>
@@ -1017,10 +990,7 @@
     <t>abstract</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsabstract</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermstitle</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsabstract</t>
   </si>
   <si>
     <t>ual : department</t>
@@ -1032,7 +1002,7 @@
     <t>department</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdepartment</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualdepartment</t>
   </si>
   <si>
     <t>ual : proquest</t>
@@ -1044,7 +1014,7 @@
     <t>proquest</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualproquest</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualproquest</t>
   </si>
   <si>
     <t>ual : specialization</t>
@@ -1056,7 +1026,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualspecialization</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualspecialization</t>
   </si>
   <si>
     <t>dcterms : dateAccepted</t>
@@ -1065,13 +1035,7 @@
     <t>date accepted</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsdateaccepted</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualfedora3uuid</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#prismdoi</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsdateaccepted</t>
   </si>
   <si>
     <t>ual : supervisor</t>
@@ -1083,18 +1047,12 @@
     <t>supervisor</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualsupervisor</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualsupervisor</t>
   </si>
   <si>
     <t>supervisor and department</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdepositor</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualunicorn</t>
-  </si>
-  <si>
     <t>rdf Type</t>
   </si>
   <si>
@@ -1113,7 +1071,7 @@
     <t>institution</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualinstitution</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualinstitution</t>
   </si>
   <si>
     <t>degree grantor</t>
@@ -1131,7 +1089,7 @@
     <t>dissertant</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualdissertant</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualdissertant</t>
   </si>
   <si>
     <t>dc : Creator</t>
@@ -1143,7 +1101,7 @@
     <t>date submitted</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsdatesubmitted</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsdatesubmitted</t>
   </si>
   <si>
     <t>bibo : degree</t>
@@ -1158,25 +1116,10 @@
     <t>enumerated text</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#bibodegree</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsisversionof</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsidentifier</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermsalternative</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dctermslanguage</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualfedora3handle</t>
-  </si>
-  <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#dcubject</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibodegree</t>
+  </si>
+  <si>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualfedora3handle</t>
   </si>
   <si>
     <t>ual : thesisLevel</t>
@@ -1188,7 +1131,7 @@
     <t>thesis level</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/profile_thesis.md#ualthesislevel</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualthesislevel</t>
   </si>
   <si>
     <t>degree level</t>
@@ -2455,12 +2398,12 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>157</v>
@@ -2471,465 +2414,429 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
       </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>167</v>
-      </c>
       <c r="L6" t="s">
         <v>105</v>
-      </c>
-      <c r="M6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
         <v>168</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" t="s">
         <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
         <v>177</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s">
         <v>178</v>
       </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
         <v>179</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" t="s">
         <v>180</v>
       </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N12" t="s">
-        <v>173</v>
-      </c>
       <c r="O12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
         <v>184</v>
       </c>
-      <c r="B14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" t="s">
-        <v>173</v>
-      </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2940,43 +2847,43 @@
         <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2987,43 +2894,43 @@
         <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3034,43 +2941,43 @@
         <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3081,43 +2988,43 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3128,43 +3035,43 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3255,476 +3162,440 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>166</v>
       </c>
-      <c r="G5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>193</v>
-      </c>
       <c r="L5" t="s">
         <v>105</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>179</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" t="s">
         <v>180</v>
       </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" t="s">
-        <v>173</v>
-      </c>
       <c r="O11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
         <v>184</v>
       </c>
-      <c r="B13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" t="s">
-        <v>173</v>
-      </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3735,43 +3606,43 @@
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3782,63 +3653,63 @@
         <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>73</v>
@@ -3853,7 +3724,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
         <v>80</v>
@@ -3862,63 +3733,63 @@
         <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3929,46 +3800,46 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3979,46 +3850,46 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4068,46 +3939,46 @@
         <v>144</v>
       </c>
       <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" t="s">
-        <v>199</v>
-      </c>
       <c r="P1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -4115,1205 +3986,1178 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N9" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>211</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="N11" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>213</v>
+      </c>
+      <c r="P11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L12" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="P12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>172</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
         <v>163</v>
       </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" t="s">
-        <v>234</v>
-      </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" t="s">
         <v>163</v>
       </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" t="s">
-        <v>246</v>
-      </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
       <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
         <v>163</v>
       </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" t="s">
-        <v>247</v>
-      </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
         <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
@@ -5322,48 +5166,48 @@
         <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
         <v>178</v>
       </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" t="s">
-        <v>179</v>
-      </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
         <v>105</v>
@@ -5372,369 +5216,369 @@
         <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q31" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" t="s">
         <v>163</v>
       </c>
-      <c r="I33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" t="s">
-        <v>266</v>
-      </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" t="s">
         <v>163</v>
       </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" t="s">
-        <v>269</v>
-      </c>
       <c r="M34" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="Q34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="P35" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="Q35" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
         <v>80</v>
@@ -5746,25 +5590,25 @@
         <v>80</v>
       </c>
       <c r="L36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q36" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="R36" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5775,806 +5619,806 @@
         <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
         <v>163</v>
       </c>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L39" t="s">
-        <v>279</v>
-      </c>
       <c r="M39" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q39" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="R39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" t="s">
         <v>163</v>
       </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" t="s">
-        <v>283</v>
-      </c>
       <c r="M40" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="Q40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L43" t="s">
         <v>163</v>
       </c>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" t="s">
-        <v>80</v>
-      </c>
-      <c r="L43" t="s">
-        <v>288</v>
-      </c>
       <c r="M43" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="G45" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" t="s">
         <v>163</v>
       </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s">
-        <v>105</v>
-      </c>
-      <c r="K45" t="s">
-        <v>80</v>
-      </c>
-      <c r="L45" t="s">
-        <v>293</v>
-      </c>
       <c r="M45" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O45" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G48" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L48" t="s">
         <v>163</v>
       </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s">
-        <v>105</v>
-      </c>
-      <c r="L48" t="s">
-        <v>300</v>
-      </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="N48" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="O48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" t="s">
         <v>163</v>
       </c>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L50" t="s">
-        <v>306</v>
-      </c>
       <c r="M50" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="N50" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="O50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q50" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="R50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="G51" t="s">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s">
         <v>80</v>
@@ -6586,193 +6430,193 @@
         <v>80</v>
       </c>
       <c r="L51" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="M51" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N51" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="O51" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="P51" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="Q51" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="R51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="G52" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" t="s">
         <v>163</v>
       </c>
-      <c r="I52" t="s">
-        <v>105</v>
-      </c>
-      <c r="J52" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52" t="s">
-        <v>105</v>
-      </c>
-      <c r="L52" t="s">
-        <v>313</v>
-      </c>
       <c r="M52" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="N52" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s">
+        <v>80</v>
+      </c>
+      <c r="L53" t="s">
         <v>163</v>
       </c>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s">
-        <v>80</v>
-      </c>
-      <c r="K53" t="s">
-        <v>80</v>
-      </c>
-      <c r="L53" t="s">
-        <v>317</v>
-      </c>
       <c r="M53" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="O53" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q53" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="R53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +6687,7 @@
         <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
         <v>144</v>
@@ -6852,16 +6696,16 @@
         <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
       </c>
       <c r="P1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>191</v>
@@ -6869,73 +6713,46 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>323</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
@@ -6944,462 +6761,450 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K11" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>337</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="L15" t="s">
         <v>105</v>
@@ -7408,148 +7213,145 @@
         <v>105</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
-      </c>
-      <c r="P15" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>345</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="L18" t="s">
         <v>105</v>
@@ -7558,113 +7360,113 @@
         <v>105</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -7672,16 +7474,16 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -7693,13 +7495,13 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
         <v>105</v>
@@ -7708,99 +7510,99 @@
         <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
         <v>253</v>
       </c>
-      <c r="B23" t="s">
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
         <v>254</v>
       </c>
-      <c r="C23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" t="s">
-        <v>350</v>
-      </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" t="s">
-        <v>258</v>
-      </c>
       <c r="L23" t="s">
         <v>105</v>
       </c>
@@ -7808,30 +7610,30 @@
         <v>105</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
         <v>80</v>
@@ -7843,145 +7645,145 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L24" t="s">
         <v>105</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
+      <c r="J25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" t="s">
         <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" t="s">
-        <v>356</v>
-      </c>
-      <c r="J25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" t="s">
-        <v>173</v>
-      </c>
-      <c r="O25" t="s">
-        <v>173</v>
-      </c>
-      <c r="P25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
         <v>105</v>
@@ -7993,372 +7795,378 @@
         <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>172</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>358</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="s">
-        <v>359</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q30" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="R30" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s">
         <v>105</v>
       </c>
       <c r="N31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q31" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="R31" t="s">
-        <v>360</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K32" t="s">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q32" t="s">
-        <v>366</v>
+        <v>172</v>
       </c>
       <c r="R32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>357</v>
       </c>
       <c r="O33" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
         <v>105</v>
@@ -8367,51 +8175,51 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="M34" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>371</v>
+        <v>172</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>372</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
         <v>105</v>
@@ -8420,54 +8228,54 @@
         <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
         <v>80</v>
@@ -8479,13 +8287,13 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
         <v>105</v>
@@ -8494,92 +8302,92 @@
         <v>105</v>
       </c>
       <c r="N36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
@@ -8591,13 +8399,13 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s">
         <v>105</v>
@@ -8606,148 +8414,148 @@
         <v>105</v>
       </c>
       <c r="N38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
         <v>105</v>
@@ -8759,13 +8567,13 @@
         <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
         <v>105</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s">
         <v>105</v>
@@ -8774,92 +8582,92 @@
         <v>105</v>
       </c>
       <c r="N41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
         <v>80</v>
@@ -8871,13 +8679,13 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
       </c>
       <c r="K43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s">
         <v>105</v>
@@ -8886,33 +8694,33 @@
         <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8927,13 +8735,13 @@
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="J44" t="s">
         <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
@@ -8942,36 +8750,36 @@
         <v>105</v>
       </c>
       <c r="N44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q44" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="R44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
         <v>105</v>
@@ -8983,13 +8791,13 @@
         <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
       </c>
       <c r="K45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s">
         <v>105</v>
@@ -8998,36 +8806,36 @@
         <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
         <v>80</v>
@@ -9039,13 +8847,13 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="J46" t="s">
         <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
@@ -9054,33 +8862,33 @@
         <v>105</v>
       </c>
       <c r="N46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O46" t="s">
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -9095,13 +8903,13 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="J47" t="s">
         <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s">
         <v>105</v>
@@ -9110,19 +8918,19 @@
         <v>105</v>
       </c>
       <c r="N47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>acl</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>alternative title</t>
-  </si>
-  <si>
-    <t>what about this one?</t>
   </si>
   <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#dctermsalternative</t>
@@ -6472,11 +6469,8 @@
       <c r="L50" t="s">
         <v>163</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>297</v>
-      </c>
-      <c r="N50" t="s">
-        <v>298</v>
       </c>
       <c r="O50" t="s">
         <v>172</v>
@@ -6493,22 +6487,22 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" t="s">
         <v>299</v>
-      </c>
-      <c r="B51" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" t="s">
-        <v>300</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -6535,13 +6529,13 @@
         <v>215</v>
       </c>
       <c r="O51" t="s">
+        <v>299</v>
+      </c>
+      <c r="P51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q51" t="s">
         <v>300</v>
-      </c>
-      <c r="P51" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>301</v>
       </c>
       <c r="R51" t="s">
         <v>172</v>
@@ -6549,22 +6543,22 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
         <v>302</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
         <v>303</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" t="s">
-        <v>304</v>
       </c>
       <c r="G52" t="s">
         <v>165</v>
@@ -6588,7 +6582,7 @@
         <v>220</v>
       </c>
       <c r="N52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s">
         <v>172</v>
@@ -6605,22 +6599,22 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
         <v>306</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" t="s">
         <v>307</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s">
-        <v>308</v>
       </c>
       <c r="G53" t="s">
         <v>165</v>
@@ -6644,10 +6638,10 @@
         <v>172</v>
       </c>
       <c r="N53" t="s">
+        <v>308</v>
+      </c>
+      <c r="O53" t="s">
         <v>309</v>
-      </c>
-      <c r="O53" t="s">
-        <v>310</v>
       </c>
       <c r="P53" t="s">
         <v>172</v>
@@ -6661,10 +6655,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" t="s">
         <v>172</v>
@@ -6833,16 +6827,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
         <v>312</v>
-      </c>
-      <c r="B5" t="s">
-        <v>313</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
         <v>165</v>
@@ -6857,13 +6851,13 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>315</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6909,16 +6903,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
         <v>317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>318</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
         <v>178</v>
@@ -6933,13 +6927,13 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -7041,10 +7035,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
         <v>172</v>
@@ -7129,16 +7123,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
         <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>165</v>
@@ -7153,13 +7147,13 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J12" t="s">
         <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L12" t="s">
         <v>172</v>
@@ -7270,16 +7264,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" t="s">
         <v>324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
         <v>165</v>
@@ -7294,13 +7288,13 @@
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L15" t="s">
         <v>105</v>
@@ -7317,16 +7311,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
         <v>328</v>
-      </c>
-      <c r="B16" t="s">
-        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>165</v>
@@ -7341,7 +7335,7 @@
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
@@ -7417,16 +7411,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" t="s">
         <v>332</v>
-      </c>
-      <c r="B18" t="s">
-        <v>333</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
         <v>165</v>
@@ -7441,13 +7435,13 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L18" t="s">
         <v>105</v>
@@ -7467,16 +7461,16 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
         <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
         <v>178</v>
@@ -7491,7 +7485,7 @@
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
@@ -7717,16 +7711,16 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" t="s">
         <v>339</v>
-      </c>
-      <c r="B24" t="s">
-        <v>340</v>
       </c>
       <c r="C24" t="s">
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24" t="s">
         <v>165</v>
@@ -7741,13 +7735,13 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
+        <v>341</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
         <v>342</v>
-      </c>
-      <c r="J24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" t="s">
-        <v>343</v>
       </c>
       <c r="L24" t="s">
         <v>105</v>
@@ -7926,7 +7920,7 @@
         <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28" t="s">
         <v>178</v>
@@ -7965,7 +7959,7 @@
         <v>172</v>
       </c>
       <c r="Q28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8074,21 +8068,21 @@
         <v>172</v>
       </c>
       <c r="R30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" t="s">
         <v>347</v>
-      </c>
-      <c r="B31" t="s">
-        <v>348</v>
       </c>
       <c r="C31" t="s">
         <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E31" t="s">
         <v>178</v>
@@ -8103,31 +8097,31 @@
         <v>80</v>
       </c>
       <c r="I31" t="s">
+        <v>349</v>
+      </c>
+      <c r="J31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" t="s">
         <v>350</v>
       </c>
-      <c r="J31" t="s">
-        <v>172</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s">
+        <v>172</v>
+      </c>
+      <c r="O31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" t="s">
         <v>351</v>
-      </c>
-      <c r="L31" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P31" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>352</v>
       </c>
       <c r="R31" t="s">
         <v>172</v>
@@ -8191,16 +8185,16 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" t="s">
         <v>353</v>
-      </c>
-      <c r="B33" t="s">
-        <v>354</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E33" t="s">
         <v>165</v>
@@ -8215,7 +8209,7 @@
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J33" t="s">
         <v>80</v>
@@ -8230,7 +8224,7 @@
         <v>172</v>
       </c>
       <c r="N33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O33" t="s">
         <v>80</v>
@@ -8247,16 +8241,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s">
         <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
         <v>178</v>
@@ -8271,7 +8265,7 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
@@ -8359,37 +8353,37 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" t="s">
         <v>361</v>
-      </c>
-      <c r="B36" t="s">
-        <v>362</v>
       </c>
       <c r="C36" t="s">
         <v>163</v>
       </c>
       <c r="D36" t="s">
+        <v>362</v>
+      </c>
+      <c r="E36" t="s">
         <v>363</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
         <v>364</v>
       </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>365</v>
-      </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s">
         <v>105</v>
@@ -8775,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
@@ -8807,16 +8801,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
         <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -8837,25 +8831,25 @@
         <v>105</v>
       </c>
       <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44" t="s">
+        <v>172</v>
+      </c>
+      <c r="P44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q44" t="s">
         <v>300</v>
-      </c>
-      <c r="L44" t="s">
-        <v>80</v>
-      </c>
-      <c r="M44" t="s">
-        <v>105</v>
-      </c>
-      <c r="N44" t="s">
-        <v>172</v>
-      </c>
-      <c r="O44" t="s">
-        <v>172</v>
-      </c>
-      <c r="P44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>301</v>
       </c>
       <c r="R44" t="s">
         <v>172</v>
@@ -8863,16 +8857,16 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
         <v>302</v>
-      </c>
-      <c r="B45" t="s">
-        <v>303</v>
       </c>
       <c r="C45" t="s">
         <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s">
         <v>165</v>
@@ -8887,7 +8881,7 @@
         <v>105</v>
       </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
@@ -8919,16 +8913,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" t="s">
         <v>306</v>
-      </c>
-      <c r="B46" t="s">
-        <v>307</v>
       </c>
       <c r="C46" t="s">
         <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E46" t="s">
         <v>165</v>
@@ -8943,13 +8937,13 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46" t="s">
         <v>309</v>
-      </c>
-      <c r="J46" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" t="s">
-        <v>310</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
@@ -8975,16 +8969,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
         <v>367</v>
-      </c>
-      <c r="B47" t="s">
-        <v>368</v>
       </c>
       <c r="C47" t="s">
         <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -8999,13 +8993,13 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s">
         <v>370</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" t="s">
-        <v>371</v>
       </c>
       <c r="L47" t="s">
         <v>105</v>
@@ -9070,7 +9064,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>153</v>
@@ -9081,7 +9075,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9094,7 +9088,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
         <v>207</v>
@@ -9121,18 +9115,18 @@
         <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
         <v>375</v>
-      </c>
-      <c r="C8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9140,7 +9134,7 @@
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>172</v>
@@ -9151,7 +9145,7 @@
         <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>172</v>
@@ -9162,10 +9156,10 @@
         <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9173,7 +9167,7 @@
         <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>172</v>
@@ -9181,24 +9175,24 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
         <v>381</v>
-      </c>
-      <c r="C13" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" t="s">
         <v>383</v>
-      </c>
-      <c r="C14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9206,10 +9200,10 @@
         <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9217,7 +9211,7 @@
         <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>172</v>
@@ -9228,7 +9222,7 @@
         <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
@@ -9236,7 +9230,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>207</v>
@@ -9250,7 +9244,7 @@
         <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
         <v>172</v>
@@ -9269,18 +9263,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" t="s">
         <v>381</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
         <v>161</v>
@@ -9291,13 +9285,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9305,7 +9299,7 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" t="s">
         <v>172</v>
@@ -9313,13 +9307,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9327,7 +9321,7 @@
         <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
         <v>172</v>
@@ -9335,10 +9329,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s">
         <v>172</v>
@@ -9346,10 +9340,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
         <v>172</v>
@@ -9357,10 +9351,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
         <v>172</v>
@@ -9371,7 +9365,7 @@
         <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -9418,13 +9412,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9432,7 +9426,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9440,15 +9434,15 @@
         <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9456,7 +9450,7 @@
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9464,26 +9458,26 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9491,10 +9485,10 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9502,7 +9496,7 @@
         <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
         <v>172</v>
@@ -9510,10 +9504,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
         <v>172</v>
@@ -9521,13 +9515,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9535,7 +9529,7 @@
         <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
         <v>172</v>
@@ -9546,7 +9540,7 @@
         <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
         <v>172</v>
@@ -9554,10 +9548,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -9568,7 +9562,7 @@
         <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
         <v>172</v>
@@ -9576,10 +9570,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
@@ -9587,10 +9581,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
         <v>172</v>
@@ -9598,10 +9592,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
         <v>172</v>
@@ -9612,7 +9606,7 @@
         <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
         <v>172</v>
@@ -9620,24 +9614,24 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
         <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>172</v>
@@ -9651,7 +9645,7 @@
         <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
         <v>172</v>
@@ -9662,10 +9656,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
         <v>172</v>
@@ -9676,10 +9670,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
         <v>172</v>
@@ -9693,7 +9687,7 @@
         <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
         <v>172</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -965,7 +965,7 @@
     <t>commitee member</t>
   </si>
   <si>
-    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualcommiteeember</t>
+    <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualcommiteemember</t>
   </si>
   <si>
     <t>examining committee member and department</t>
@@ -6880,7 +6880,7 @@
         <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>acl</t>
   </si>
@@ -282,6 +282,72 @@
     <t>http://purl.org/dc/terms/language</t>
   </si>
   <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ita</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/rus</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/zxx</t>
+  </si>
+  <si>
+    <t>No linguistic content</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/eng</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/por</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/zho</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/vie</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/license</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ipk</t>
+  </si>
+  <si>
+    <t>Inupiaq</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/spa</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/ukr</t>
   </si>
   <si>
@@ -306,72 +372,6 @@
     <t>Other language</t>
   </si>
   <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ita</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/rus</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/zxx</t>
-  </si>
-  <si>
-    <t>No linguistic content</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/eng</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/license</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/por</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/zho</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/vie</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ipk</t>
-  </si>
-  <si>
-    <t>Inupiaq</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/spa</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
     <t>http://creativecommons.org/licenses/by-nc-nd/4.0/</t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>ebu : dateIngested</t>
   </si>
   <si>
-    <t>map first to info:createdDate. if not available, map next to fedora:created</t>
+    <t>backward compatible with info : createdDate || backward compatible with fedora : created || map first to info:createdDate. if not available, map next to fedora:created</t>
   </si>
   <si>
     <t>ual : hydraNoid</t>
@@ -591,7 +591,7 @@
     <t>ual : fedora3UUID</t>
   </si>
   <si>
-    <t>http://terms.library.library.ca/identifiers/fedora3uuid</t>
+    <t>ual : id/fedora3uuid || http://terms.library.library.ca/identifiers/fedora3uuid</t>
   </si>
   <si>
     <t>rdf : type</t>
@@ -609,7 +609,7 @@
     <t>pcdm : memberOf</t>
   </si>
   <si>
-    <t>http://terms.library.library.ca/identifiers/belongsToCommunity</t>
+    <t>ual : id/belongsToCommunity || http://terms.library.library.ca/identifiers/belongsToCommunity</t>
   </si>
   <si>
     <t>indicates community inheritence</t>
@@ -684,7 +684,7 @@
     <t>ual : nnaFile</t>
   </si>
   <si>
-    <t>ualid : halpern:nnafile</t>
+    <t>ual : id/halpern:nnafile</t>
   </si>
   <si>
     <t>legacy property</t>
@@ -708,7 +708,7 @@
     <t>type of item</t>
   </si>
   <si>
-    <t>{u'onForm': u'true', u'uri': u'http://terms.library.ualberta.ca/learningObject', u'label': u'Learning Object'}</t>
+    <t>{u'onForm': u'true', u'uri': u'bibo : Article', u'label': u'Article'} || {u'onForm': u'true', u'uri': u'bibo : Book', u'label': u'Book'} || {u'onForm': u'true', u'uri': u'bibo : Chapter', u'label': u'Chapter'} || {u'onForm': u'true', u'uri': u'bibo : Image', u'label': u'Image'} || {u'onForm': u'true', u'uri': u'bibo : Report', u'label': u'Report'} || {u'onForm': u'true', u'uri': u'ual : researchMaterial', u'label': u'Research Material'} || {u'onForm': u'true', u'uri': u'vivo : ConferencePaper', u'label': u'Conference Paper'} || {u'onForm': u'true', u'uri': u'vivo : ConferencePoster', u'label': u'Conference Poster'} || {u'onForm': u'true', u'uri': u'vivo : Dataset', u'label': u'Dataset'} || {u'onForm': u'true', u'uri': u'vivo : Review', u'label': u'Review'} || {u'onForm': u'true', u'uri': u'ual : learningObject', u'label': u'Learning Object'}</t>
   </si>
   <si>
     <t>dcterms : license</t>
@@ -723,13 +723,13 @@
     <t>license information</t>
   </si>
   <si>
-    <t>{u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc-nd/3.0/', u'label': u'Attribution-NonCommercial-NoDerivs 3.0 Unported'}</t>
+    <t>{u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by/4.0/', u'label': u'Attribution 4.0 International'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc/3.0/', u'label': u'Attribution-NonCommercial 3.0 Unported'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by-sa/4.0/', u'label': u'Attribution-ShareAlike 4.0 International'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by-nc/4.0/', u'label': u'Attribution-NonCommercial 4.0 International'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nd/3.0/', u'label': u'Attribution-NoDerivs 3.0 Unported'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by/3.0/', u'label': u'Attribution 3.0 Unported'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by-nc-nd/4.0/', u'label': u'Attribution-NonCommercial-NoDerivatives 4.0 International'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-sa/3.0/', u'label': u'Attribution-ShareAlike 3.0 Unported'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/publicdomain/zero/1.0/', u'label': u'CC0 1.0 Universal'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by-nd/4.0/', u'label': u'Attribution-NoDerivatives 4.0 International'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/publicdomain/mark/1.0/', u'label': u'Public Domain Mark 1.0'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc-sa/3.0/', u'label': u'Attribution-NonCommercial-ShareAlike 3.0 Unported'} || {u'onForm': u'true', u'uri': u'http://creativecommons.org/licenses/by-nc-sa/4.0/', u'label': u'Attribution-NonCommercial-ShareAlike 4.0 International'} || {u'onForm': u'false', u'uri': u'http://creativecommons.org/licenses/by-nc-nd/3.0/', u'label': u'Attribution-NonCommercial-NoDerivs 3.0 Unported'}</t>
   </si>
   <si>
     <t>ual : ark</t>
   </si>
   <si>
-    <t>ualid : arkid</t>
+    <t>ual : id/arkid</t>
   </si>
   <si>
     <t>archival resource key id</t>
@@ -747,7 +747,7 @@
     <t>fedora : digest</t>
   </si>
   <si>
-    <t>ualid : fedora3uuid</t>
+    <t>ual : id/fedora3uuid</t>
   </si>
   <si>
     <t>fedora 3 uuid</t>
@@ -774,7 +774,7 @@
     <t>ual : nnaItem</t>
   </si>
   <si>
-    <t>ualid : halpern:nnaitem</t>
+    <t>ual : id/halpern:nnaitem</t>
   </si>
   <si>
     <t>northern north america item id</t>
@@ -786,7 +786,7 @@
     <t>prism : doi</t>
   </si>
   <si>
-    <t>ualid : doi</t>
+    <t>ual : id/doi</t>
   </si>
   <si>
     <t>always doi (currently set to searchable (should this be changed?)</t>
@@ -807,7 +807,7 @@
     <t>ual : unicorn</t>
   </si>
   <si>
-    <t>ualid : unicorn</t>
+    <t>ual : id/unicorn</t>
   </si>
   <si>
     <t>unicorn</t>
@@ -840,10 +840,10 @@
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibostatus</t>
   </si>
   <si>
-    <t>{u'onForm': u'false', u'uri': u'http://purl.org/ontology/bibo/status#accepted', u'label': u'accepted'}</t>
-  </si>
-  <si>
-    <t>ualids : hasCollectionId</t>
+    <t>{u'onForm': u'false', u'uri': u'bibo : status#unpublished', u'label': u'unpublished'} || {u'onForm': u'true', u'uri': u'bibo : status#published', u'label': u'published'} || {u'onForm': u'true', u'uri': u'bibo : status#draft', u'label': u'draft'} || {u'onForm': u'true', u'uri': u'vivo : submitted', u'label': u'submitted'} || {u'onForm': u'false', u'uri': u'bibo : status#accepted', u'label': u'accepted'}</t>
+  </si>
+  <si>
+    <t>ual : identifiers/hasCollectionId</t>
   </si>
   <si>
     <t>indicates collection inheritance</t>
@@ -903,7 +903,7 @@
     <t>ual : ingestBatch</t>
   </si>
   <si>
-    <t>http://terms.library.library.ca/identifiers/ingestbatch</t>
+    <t>http://terms.library.library.ca/id/ingestbatch || http://terms.library.library.ca/identifiers/ingestbatch</t>
   </si>
   <si>
     <t>dcterms : alternative</t>
@@ -921,13 +921,13 @@
     <t>language</t>
   </si>
   <si>
-    <t>{u'onForm': u'true', u'uri': u'http://id.loc.gov/vocabulary/iso639-2/spa', u'label': u'Spanish'}</t>
+    <t>{u'onForm': u'true', u'uri': u'lang : ukr', u'label': u'Ukranian'} || {u'onForm': u'true', u'uri': u'lang : jpn', u'label': u'Japanese'} || {u'onForm': u'true', u'uri': u'lang : ger', u'label': u'German'} || {u'onForm': u'true', u'uri': u'ual : other', u'label': u'Other language'} || {u'onForm': u'true', u'uri': u'lang : ita', u'label': u'Italian'} || {u'onForm': u'true', u'uri': u'lang : rus', u'label': u'Russian'} || {u'onForm': u'true', u'uri': u'lang : zxx', u'label': u'No linguistic content'} || {u'onForm': u'true', u'uri': u'lang : eng', u'label': u'English'} || {u'onForm': u'true', u'uri': u'lang : fre', u'label': u'French'} || {u'onForm': u'false', u'uri': u'lang : por', u'label': u'Portuguese'} || {u'onForm': u'true', u'uri': u'lang : zho', u'label': u'Chinese'} || {u'onForm': u'false', u'uri': u'lang : vie', u'label': u'Vietnamese'} || {u'onForm': u'false', u'uri': u'lang : ipk', u'label': u'Inupiaq'} || {u'onForm': u'true', u'uri': u'lang : spa', u'label': u'Spanish'}</t>
   </si>
   <si>
     <t>ual : fedora3Handle</t>
   </si>
   <si>
-    <t>ualid : fedora3handle</t>
+    <t>ual : id/fedora3handle</t>
   </si>
   <si>
     <t>fedora 3 handle</t>
@@ -957,7 +957,7 @@
     <t>ual : commiteeMember</t>
   </si>
   <si>
-    <t>ualrole : thesiscommitteemember</t>
+    <t>ual : role/thesiscommitteemember</t>
   </si>
   <si>
     <t>commitee member</t>
@@ -972,7 +972,7 @@
     <t>ual : graduationDate</t>
   </si>
   <si>
-    <t>ualdate : graduationdate</t>
+    <t>ual : date/graduationdate</t>
   </si>
   <si>
     <t>graduation date</t>
@@ -1005,7 +1005,7 @@
     <t>ual : proquest</t>
   </si>
   <si>
-    <t>ualid : proquest</t>
+    <t>ual : id/proquest</t>
   </si>
   <si>
     <t>proquest</t>
@@ -1017,7 +1017,7 @@
     <t>ual : specialization</t>
   </si>
   <si>
-    <t>ualthesis : specialization</t>
+    <t>ual : thesis/specialization</t>
   </si>
   <si>
     <t>specialization</t>
@@ -1056,7 +1056,7 @@
     <t>{u'onForm': u'False', u'uri': u'bibo : Thesis', u'label': u'Thesis'}</t>
   </si>
   <si>
-    <t>thesis always belong to collection 44558t416</t>
+    <t>indicates collection inheritance || thesis always belong to collection 44558t416</t>
   </si>
   <si>
     <t>swrc : institution</t>
@@ -1074,7 +1074,7 @@
     <t>degree grantor</t>
   </si>
   <si>
-    <t>{u'onForm': u'true', u'uri': u'lcn : n2009054054', u'label': u"St. Stephen's College"}</t>
+    <t>{u'onForm': u'true', u'uri': u'lcn : n79058482', u'label': u'University of Alberta'} || {u'onForm': u'true', u'uri': u'lcn : n2009054054', u'label': u"St. Stephen's College"}</t>
   </si>
   <si>
     <t>ual : dissertant</t>
@@ -1116,13 +1116,16 @@
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibodegree</t>
   </si>
   <si>
+    <t>{u'onForm': u'true', u'uri': u'lang : ita', u'label': u'Italian'} || {u'onForm': u'true', u'uri': u'lang : rus', u'label': u'Russian'} || {u'onForm': u'true', u'uri': u'lang : zxx', u'label': u'No linguistic content'} || {u'onForm': u'true', u'uri': u'lang : eng', u'label': u'English'} || {u'onForm': u'true', u'uri': u'lang : fre', u'label': u'French'} || {u'onForm': u'false', u'uri': u'lang : por', u'label': u'Portuguese'} || {u'onForm': u'true', u'uri': u'lang : zho', u'label': u'Chinese'} || {u'onForm': u'false', u'uri': u'lang : vie', u'label': u'Vietnamese'} || {u'onForm': u'false', u'uri': u'lang : ipk', u'label': u'Inupiaq'} || {u'onForm': u'true', u'uri': u'lang : spa', u'label': u'Spanish'} || {u'onForm': u'true', u'uri': u'lang : ukr', u'label': u'Ukranian'} || {u'onForm': u'true', u'uri': u'lang : jpn', u'label': u'Japanese'} || {u'onForm': u'true', u'uri': u'lang : ger', u'label': u'German'} || {u'onForm': u'true', u'uri': u'ual : other', u'label': u'Other language'}</t>
+  </si>
+  <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualfedora3handle</t>
   </si>
   <si>
     <t>ual : thesisLevel</t>
   </si>
   <si>
-    <t>ualthesis : thesislevel</t>
+    <t>ual : thesis/thesislevel</t>
   </si>
   <si>
     <t>thesis level</t>
@@ -1197,10 +1200,13 @@
     <t>etd_ms : rights</t>
   </si>
   <si>
+    <t>role='committeemember' || etd_ms : contributor</t>
+  </si>
+  <si>
     <t>etd_ms : contributor</t>
   </si>
   <si>
-    <t>etd_ms : level</t>
+    <t>etd_ms : degree || etd_ms : level</t>
   </si>
   <si>
     <t>etd_ms : date</t>
@@ -1212,7 +1218,7 @@
     <t>etd_ms : title</t>
   </si>
   <si>
-    <t>etd_ms : discipline</t>
+    <t>etd_ms : degree || etd_ms : discipline</t>
   </si>
   <si>
     <t>etd_ms : description</t>
@@ -1221,6 +1227,9 @@
     <t>etd_ms : identifier</t>
   </si>
   <si>
+    <t>role='advisor' || etd_ms : contributor</t>
+  </si>
+  <si>
     <t>etd_ms : subject</t>
   </si>
   <si>
@@ -1230,7 +1239,7 @@
     <t>etd_ms : creator</t>
   </si>
   <si>
-    <t>etd_ms : name</t>
+    <t>etd_ms : degree || etd_ms : name</t>
   </si>
   <si>
     <t>etd_ms : alternativeTitle</t>
@@ -2000,13 +2009,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2014,40 +2023,40 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -2069,7 +2078,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
@@ -2080,7 +2089,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -2113,7 +2122,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2157,7 +2166,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
@@ -2179,7 +2188,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -2193,7 +2202,7 @@
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -2237,7 +2246,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -2254,10 +2263,10 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2265,10 +2274,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2276,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2287,10 +2296,10 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2298,10 +2307,10 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2309,10 +2318,10 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2320,10 +2329,10 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2331,10 +2340,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2342,21 +2351,21 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2364,32 +2373,32 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2397,10 +2406,10 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2511,7 @@
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2527,19 +2536,19 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>164</v>
@@ -2548,16 +2557,16 @@
         <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2568,19 +2577,19 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>168</v>
@@ -2598,10 +2607,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -2615,13 +2624,13 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>163</v>
@@ -2850,19 +2859,19 @@
         <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
         <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
         <v>181</v>
@@ -2871,16 +2880,16 @@
         <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3392,13 +3401,13 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>164</v>
@@ -3407,19 +3416,19 @@
         <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3433,13 +3442,13 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>168</v>
@@ -3451,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>80</v>
@@ -3460,10 +3469,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -3480,7 +3489,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>163</v>
@@ -3498,7 +3507,7 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
@@ -3715,13 +3724,13 @@
         <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
         <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>181</v>
@@ -3730,19 +3739,19 @@
         <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3950,13 +3959,13 @@
         <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
         <v>160</v>
@@ -3968,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4118,7 +4127,7 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
         <v>160</v>
@@ -4339,7 +4348,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>202</v>
@@ -4348,13 +4357,13 @@
         <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
         <v>80</v>
@@ -4371,10 +4380,10 @@
         <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -4389,13 +4398,13 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -4515,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>160</v>
@@ -4536,7 +4545,7 @@
         <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
         <v>163</v>
@@ -4562,10 +4571,10 @@
         <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>160</v>
@@ -4580,13 +4589,13 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
         <v>163</v>
@@ -4712,10 +4721,10 @@
         <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
         <v>160</v>
@@ -4727,16 +4736,16 @@
         <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>163</v>
@@ -4765,7 +4774,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>160</v>
@@ -4780,7 +4789,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -4868,10 +4877,10 @@
         <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>160</v>
@@ -4886,13 +4895,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s">
         <v>163</v>
@@ -4974,7 +4983,7 @@
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -4992,7 +5001,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
         <v>80</v>
@@ -5027,10 +5036,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -5042,16 +5051,16 @@
         <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -5345,10 +5354,10 @@
         <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
@@ -5360,16 +5369,16 @@
         <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -5416,7 +5425,7 @@
         <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
         <v>80</v>
@@ -5451,10 +5460,10 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
@@ -5469,13 +5478,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -5557,10 +5566,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -5572,16 +5581,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -5610,13 +5619,13 @@
         <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>256</v>
@@ -5628,10 +5637,10 @@
         <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s">
         <v>80</v>
@@ -5663,10 +5672,10 @@
         <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
         <v>160</v>
@@ -5678,16 +5687,16 @@
         <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s">
         <v>163</v>
@@ -5822,10 +5831,10 @@
         <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>160</v>
@@ -5837,16 +5846,16 @@
         <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M35" t="s">
         <v>163</v>
@@ -5893,7 +5902,7 @@
         <v>160</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>160</v>
@@ -5928,10 +5937,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -5952,7 +5961,7 @@
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -5981,10 +5990,10 @@
         <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
@@ -6002,10 +6011,10 @@
         <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
         <v>163</v>
@@ -6037,7 +6046,7 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
@@ -6205,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
@@ -6258,10 +6267,10 @@
         <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
         <v>160</v>
@@ -6282,7 +6291,7 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s">
         <v>163</v>
@@ -6426,10 +6435,10 @@
         <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -6450,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -6538,10 +6547,10 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
         <v>160</v>
@@ -6556,13 +6565,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s">
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -6759,10 +6768,10 @@
         <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
         <v>80</v>
@@ -6777,13 +6786,13 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s">
         <v>163</v>
@@ -6818,7 +6827,7 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -6871,10 +6880,10 @@
         <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
         <v>160</v>
@@ -6886,16 +6895,16 @@
         <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M54" t="s">
         <v>163</v>
@@ -6930,7 +6939,7 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
         <v>80</v>
@@ -7167,7 +7176,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>202</v>
@@ -7176,13 +7185,13 @@
         <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>80</v>
@@ -7223,7 +7232,7 @@
         <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>163</v>
@@ -7246,10 +7255,10 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -7261,16 +7270,16 @@
         <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -7293,7 +7302,7 @@
         <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -7311,7 +7320,7 @@
         <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7546,7 +7555,7 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -7561,13 +7570,13 @@
         <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
         <v>163</v>
@@ -7643,7 +7652,7 @@
         <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>80</v>
@@ -7661,7 +7670,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -7693,10 +7702,10 @@
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
         <v>160</v>
@@ -7717,7 +7726,7 @@
         <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
         <v>163</v>
@@ -7793,10 +7802,10 @@
         <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -7808,16 +7817,16 @@
         <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
         <v>163</v>
@@ -7893,10 +7902,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -7917,7 +7926,7 @@
         <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -7943,10 +7952,10 @@
         <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>160</v>
@@ -7958,16 +7967,16 @@
         <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
         <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
         <v>163</v>
@@ -8093,10 +8102,10 @@
         <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>160</v>
@@ -8108,16 +8117,16 @@
         <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s">
         <v>163</v>
@@ -8193,13 +8202,13 @@
         <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>256</v>
@@ -8211,13 +8220,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -8243,13 +8252,13 @@
         <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>339</v>
@@ -8267,7 +8276,7 @@
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
         <v>163</v>
@@ -8293,10 +8302,10 @@
         <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -8308,16 +8317,16 @@
         <v>182</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -8393,10 +8402,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -8408,16 +8417,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -8552,7 +8561,7 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
         <v>80</v>
@@ -8605,10 +8614,10 @@
         <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>160</v>
@@ -8623,7 +8632,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
         <v>80</v>
@@ -8735,7 +8744,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>80</v>
@@ -8773,10 +8782,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -8788,16 +8797,16 @@
         <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -8847,7 +8856,7 @@
         <v>160</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s">
         <v>160</v>
@@ -8885,10 +8894,10 @@
         <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>160</v>
@@ -8903,13 +8912,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
         <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
         <v>163</v>
@@ -8997,10 +9006,10 @@
         <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
         <v>160</v>
@@ -9021,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
         <v>163</v>
@@ -9221,10 +9230,10 @@
         <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>160</v>
@@ -9239,13 +9248,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s">
         <v>163</v>
@@ -9280,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -9295,13 +9304,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s">
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -9316,7 +9325,7 @@
         <v>160</v>
       </c>
       <c r="Q46" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="R46" t="s">
         <v>160</v>
@@ -9333,10 +9342,10 @@
         <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>160</v>
@@ -9348,22 +9357,22 @@
         <v>165</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s">
         <v>163</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s">
         <v>160</v>
@@ -9392,7 +9401,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
@@ -9413,7 +9422,7 @@
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -9436,25 +9445,25 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
         <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
         <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -9463,22 +9472,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s">
         <v>80</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s">
         <v>163</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P49" t="s">
         <v>160</v>
@@ -9531,7 +9540,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
@@ -9542,7 +9551,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9582,7 +9591,7 @@
         <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9590,10 +9599,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9601,7 +9610,7 @@
         <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
@@ -9612,7 +9621,7 @@
         <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9623,10 +9632,10 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9634,7 +9643,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>160</v>
@@ -9645,10 +9654,10 @@
         <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9656,10 +9665,10 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9667,10 +9676,10 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9678,7 +9687,7 @@
         <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -9689,7 +9698,7 @@
         <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -9733,10 +9742,10 @@
         <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9755,10 +9764,10 @@
         <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9777,10 +9786,10 @@
         <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9788,7 +9797,7 @@
         <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
@@ -9810,7 +9819,7 @@
         <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
         <v>160</v>
@@ -9821,7 +9830,7 @@
         <v>300</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
         <v>160</v>
@@ -9829,10 +9838,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
@@ -9879,13 +9888,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9893,7 +9902,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9901,7 +9910,7 @@
         <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9909,7 +9918,7 @@
         <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9917,7 +9926,7 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9925,15 +9934,15 @@
         <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9941,10 +9950,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9952,10 +9961,10 @@
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9963,7 +9972,7 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9974,7 +9983,7 @@
         <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
         <v>160</v>
@@ -9985,10 +9994,10 @@
         <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9996,7 +10005,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
@@ -10007,7 +10016,7 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>160</v>
@@ -10018,7 +10027,7 @@
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -10029,7 +10038,7 @@
         <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -10040,7 +10049,7 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -10051,7 +10060,7 @@
         <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -10062,7 +10071,7 @@
         <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
@@ -10073,7 +10082,7 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
         <v>160</v>
@@ -10087,10 +10096,10 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10098,7 +10107,7 @@
         <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
@@ -10112,7 +10121,7 @@
         <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
         <v>160</v>
@@ -10126,7 +10135,7 @@
         <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
         <v>160</v>
@@ -10140,7 +10149,7 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
         <v>160</v>
@@ -10151,10 +10160,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>acl</t>
   </si>
@@ -282,6 +282,30 @@
     <t>http://purl.org/dc/terms/language</t>
   </si>
   <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ukr</t>
+  </si>
+  <si>
+    <t>Ukranian</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/jpn</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ger</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>http://terms.library.ualberta.ca/other</t>
+  </si>
+  <si>
+    <t>Other language</t>
+  </si>
+  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/ita</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>English</t>
   </si>
   <si>
+    <t>http://purl.org/dc/terms/license</t>
+  </si>
+  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
   </si>
   <si>
@@ -333,9 +360,6 @@
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>http://purl.org/dc/terms/license</t>
-  </si>
-  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/ipk</t>
   </si>
   <si>
@@ -348,30 +372,6 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ukr</t>
-  </si>
-  <si>
-    <t>Ukranian</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/jpn</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ger</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>http://terms.library.ualberta.ca/other</t>
-  </si>
-  <si>
-    <t>Other language</t>
-  </si>
-  <si>
     <t>http://creativecommons.org/licenses/by-nc-nd/4.0/</t>
   </si>
   <si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibodegree</t>
-  </si>
-  <si>
-    <t>{u'onForm': u'true', u'uri': u'lang : ita', u'label': u'Italian'} || {u'onForm': u'true', u'uri': u'lang : rus', u'label': u'Russian'} || {u'onForm': u'true', u'uri': u'lang : zxx', u'label': u'No linguistic content'} || {u'onForm': u'true', u'uri': u'lang : eng', u'label': u'English'} || {u'onForm': u'true', u'uri': u'lang : fre', u'label': u'French'} || {u'onForm': u'false', u'uri': u'lang : por', u'label': u'Portuguese'} || {u'onForm': u'true', u'uri': u'lang : zho', u'label': u'Chinese'} || {u'onForm': u'false', u'uri': u'lang : vie', u'label': u'Vietnamese'} || {u'onForm': u'false', u'uri': u'lang : ipk', u'label': u'Inupiaq'} || {u'onForm': u'true', u'uri': u'lang : spa', u'label': u'Spanish'} || {u'onForm': u'true', u'uri': u'lang : ukr', u'label': u'Ukranian'} || {u'onForm': u'true', u'uri': u'lang : jpn', u'label': u'Japanese'} || {u'onForm': u'true', u'uri': u'lang : ger', u'label': u'German'} || {u'onForm': u'true', u'uri': u'ual : other', u'label': u'Other language'}</t>
   </si>
   <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualfedora3handle</t>
@@ -2009,13 +2006,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2023,40 +2020,40 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
         <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
@@ -2089,7 +2086,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -2202,7 +2199,7 @@
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -2263,10 +2260,10 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2274,10 +2271,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2285,10 +2282,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2296,10 +2293,10 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2307,10 +2304,10 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2318,10 +2315,10 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2329,10 +2326,10 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2340,10 +2337,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2351,21 +2348,21 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2373,32 +2370,32 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2406,10 +2403,10 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2508,7 @@
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2536,19 +2533,19 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
         <v>164</v>
@@ -2557,16 +2554,16 @@
         <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2577,19 +2574,19 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>168</v>
@@ -2607,10 +2604,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -2624,13 +2621,13 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>163</v>
@@ -2859,19 +2856,19 @@
         <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>181</v>
@@ -2880,16 +2877,16 @@
         <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3401,13 +3398,13 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
         <v>164</v>
@@ -3416,19 +3413,19 @@
         <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3442,13 +3439,13 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>168</v>
@@ -3460,7 +3457,7 @@
         <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
         <v>80</v>
@@ -3469,10 +3466,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -3489,7 +3486,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>163</v>
@@ -3507,7 +3504,7 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
@@ -3724,13 +3721,13 @@
         <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
         <v>181</v>
@@ -3739,19 +3736,19 @@
         <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3959,13 +3956,13 @@
         <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
         <v>160</v>
@@ -3977,7 +3974,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4127,7 +4124,7 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
         <v>160</v>
@@ -4348,7 +4345,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>202</v>
@@ -4357,13 +4354,13 @@
         <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>80</v>
@@ -4380,10 +4377,10 @@
         <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -4398,13 +4395,13 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -4524,7 +4521,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
         <v>160</v>
@@ -4545,7 +4542,7 @@
         <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
         <v>163</v>
@@ -4571,10 +4568,10 @@
         <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>160</v>
@@ -4589,13 +4586,13 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
         <v>163</v>
@@ -4721,10 +4718,10 @@
         <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
         <v>160</v>
@@ -4736,16 +4733,16 @@
         <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
         <v>163</v>
@@ -4774,7 +4771,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
         <v>160</v>
@@ -4789,7 +4786,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -4877,10 +4874,10 @@
         <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>160</v>
@@ -4895,13 +4892,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
         <v>163</v>
@@ -4983,7 +4980,7 @@
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -5001,7 +4998,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
         <v>80</v>
@@ -5036,10 +5033,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -5051,16 +5048,16 @@
         <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -5354,10 +5351,10 @@
         <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
@@ -5369,16 +5366,16 @@
         <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -5425,7 +5422,7 @@
         <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
         <v>80</v>
@@ -5460,10 +5457,10 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
@@ -5478,13 +5475,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -5566,10 +5563,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -5581,16 +5578,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -5619,13 +5616,13 @@
         <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
         <v>256</v>
@@ -5637,10 +5634,10 @@
         <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s">
         <v>80</v>
@@ -5672,10 +5669,10 @@
         <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
         <v>160</v>
@@ -5687,16 +5684,16 @@
         <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M32" t="s">
         <v>163</v>
@@ -5831,10 +5828,10 @@
         <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>160</v>
@@ -5846,16 +5843,16 @@
         <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s">
         <v>163</v>
@@ -5902,7 +5899,7 @@
         <v>160</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
         <v>160</v>
@@ -5937,10 +5934,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -5961,7 +5958,7 @@
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -5990,10 +5987,10 @@
         <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
@@ -6011,10 +6008,10 @@
         <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s">
         <v>163</v>
@@ -6046,7 +6043,7 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
@@ -6214,7 +6211,7 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
@@ -6267,10 +6264,10 @@
         <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
         <v>160</v>
@@ -6291,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
         <v>163</v>
@@ -6435,10 +6432,10 @@
         <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -6459,7 +6456,7 @@
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -6547,10 +6544,10 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>160</v>
@@ -6565,13 +6562,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s">
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -6768,10 +6765,10 @@
         <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>80</v>
@@ -6786,13 +6783,13 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M52" t="s">
         <v>163</v>
@@ -6827,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -6880,10 +6877,10 @@
         <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
         <v>160</v>
@@ -6895,16 +6892,16 @@
         <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M54" t="s">
         <v>163</v>
@@ -6939,7 +6936,7 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
         <v>80</v>
@@ -7176,7 +7173,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
         <v>202</v>
@@ -7185,13 +7182,13 @@
         <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>80</v>
@@ -7232,7 +7229,7 @@
         <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
         <v>163</v>
@@ -7255,10 +7252,10 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -7270,16 +7267,16 @@
         <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -7302,7 +7299,7 @@
         <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -7320,7 +7317,7 @@
         <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7555,7 +7552,7 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -7570,13 +7567,13 @@
         <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
         <v>163</v>
@@ -7652,7 +7649,7 @@
         <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>80</v>
@@ -7670,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -7702,10 +7699,10 @@
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>160</v>
@@ -7726,7 +7723,7 @@
         <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
         <v>163</v>
@@ -7802,10 +7799,10 @@
         <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -7817,16 +7814,16 @@
         <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
         <v>163</v>
@@ -7902,10 +7899,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -7926,7 +7923,7 @@
         <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -7952,10 +7949,10 @@
         <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
         <v>160</v>
@@ -7967,16 +7964,16 @@
         <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
         <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
         <v>163</v>
@@ -8102,10 +8099,10 @@
         <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>160</v>
@@ -8117,16 +8114,16 @@
         <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M24" t="s">
         <v>163</v>
@@ -8202,13 +8199,13 @@
         <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
         <v>256</v>
@@ -8220,13 +8217,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -8252,13 +8249,13 @@
         <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
         <v>339</v>
@@ -8276,7 +8273,7 @@
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s">
         <v>163</v>
@@ -8302,10 +8299,10 @@
         <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -8317,16 +8314,16 @@
         <v>182</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -8402,10 +8399,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -8417,16 +8414,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -8561,7 +8558,7 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>80</v>
@@ -8614,10 +8611,10 @@
         <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
         <v>160</v>
@@ -8632,7 +8629,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s">
         <v>80</v>
@@ -8744,7 +8741,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
         <v>80</v>
@@ -8782,10 +8779,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -8797,16 +8794,16 @@
         <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s">
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -8856,7 +8853,7 @@
         <v>160</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K38" t="s">
         <v>160</v>
@@ -8894,10 +8891,10 @@
         <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>160</v>
@@ -8912,13 +8909,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
         <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M39" t="s">
         <v>163</v>
@@ -9006,10 +9003,10 @@
         <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
         <v>160</v>
@@ -9030,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s">
         <v>163</v>
@@ -9230,10 +9227,10 @@
         <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
         <v>160</v>
@@ -9248,13 +9245,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s">
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M45" t="s">
         <v>163</v>
@@ -9289,7 +9286,7 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -9304,13 +9301,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s">
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -9325,7 +9322,7 @@
         <v>160</v>
       </c>
       <c r="Q46" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="R46" t="s">
         <v>160</v>
@@ -9342,10 +9339,10 @@
         <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
         <v>160</v>
@@ -9357,22 +9354,22 @@
         <v>165</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s">
         <v>163</v>
       </c>
       <c r="N47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s">
         <v>160</v>
@@ -9401,7 +9398,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
@@ -9422,7 +9419,7 @@
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -9445,25 +9442,25 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
         <v>366</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
         <v>367</v>
-      </c>
-      <c r="C49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" t="s">
-        <v>368</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -9472,22 +9469,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s">
         <v>80</v>
       </c>
       <c r="L49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M49" t="s">
         <v>163</v>
       </c>
       <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
         <v>369</v>
-      </c>
-      <c r="O49" t="s">
-        <v>370</v>
       </c>
       <c r="P49" t="s">
         <v>160</v>
@@ -9540,7 +9537,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
@@ -9551,7 +9548,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9591,7 +9588,7 @@
         <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9599,10 +9596,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
         <v>374</v>
-      </c>
-      <c r="C8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9610,7 +9607,7 @@
         <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
@@ -9621,7 +9618,7 @@
         <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9632,10 +9629,10 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9643,7 +9640,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
         <v>160</v>
@@ -9654,10 +9651,10 @@
         <v>322</v>
       </c>
       <c r="B13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
         <v>380</v>
-      </c>
-      <c r="C13" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9665,10 +9662,10 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" t="s">
         <v>382</v>
-      </c>
-      <c r="C14" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9676,10 +9673,10 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9687,7 +9684,7 @@
         <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -9698,7 +9695,7 @@
         <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -9742,10 +9739,10 @@
         <v>345</v>
       </c>
       <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" t="s">
         <v>380</v>
-      </c>
-      <c r="C21" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9764,10 +9761,10 @@
         <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9786,10 +9783,10 @@
         <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9797,7 +9794,7 @@
         <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
@@ -9819,7 +9816,7 @@
         <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" t="s">
         <v>160</v>
@@ -9830,7 +9827,7 @@
         <v>300</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
         <v>160</v>
@@ -9838,10 +9835,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
@@ -9888,13 +9885,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9902,7 +9899,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9910,7 +9907,7 @@
         <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9918,7 +9915,7 @@
         <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9926,7 +9923,7 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9934,15 +9931,15 @@
         <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9950,10 +9947,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9961,10 +9958,10 @@
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9972,7 +9969,7 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9983,7 +9980,7 @@
         <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
         <v>160</v>
@@ -9994,10 +9991,10 @@
         <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10005,7 +10002,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
@@ -10016,7 +10013,7 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
         <v>160</v>
@@ -10027,7 +10024,7 @@
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -10038,7 +10035,7 @@
         <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -10049,7 +10046,7 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -10060,7 +10057,7 @@
         <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -10071,7 +10068,7 @@
         <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
@@ -10082,7 +10079,7 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
         <v>160</v>
@@ -10096,10 +10093,10 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10107,7 +10104,7 @@
         <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
@@ -10121,7 +10118,7 @@
         <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C23" t="s">
         <v>160</v>
@@ -10135,7 +10132,7 @@
         <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
         <v>160</v>
@@ -10149,7 +10146,7 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C25" t="s">
         <v>160</v>
@@ -10160,10 +10157,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>acl</t>
   </si>
@@ -282,6 +282,72 @@
     <t>http://purl.org/dc/terms/language</t>
   </si>
   <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ita</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/rus</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/zxx</t>
+  </si>
+  <si>
+    <t>No linguistic content</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/eng</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/por</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/zho</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/vie</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/license</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/ipk</t>
+  </si>
+  <si>
+    <t>Inupiaq</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2/spa</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>http://id.loc.gov/vocabulary/iso639-2/ukr</t>
   </si>
   <si>
@@ -306,72 +372,6 @@
     <t>Other language</t>
   </si>
   <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ita</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/rus</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/zxx</t>
-  </si>
-  <si>
-    <t>No linguistic content</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/eng</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/license</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/fre</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/por</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/zho</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/vie</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/ipk</t>
-  </si>
-  <si>
-    <t>Inupiaq</t>
-  </si>
-  <si>
-    <t>http://id.loc.gov/vocabulary/iso639-2/spa</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
     <t>http://creativecommons.org/licenses/by-nc-nd/4.0/</t>
   </si>
   <si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#bibodegree</t>
+  </si>
+  <si>
+    <t>{u'onForm': u'true', u'uri': u'lang : ita', u'label': u'Italian'} || {u'onForm': u'true', u'uri': u'lang : rus', u'label': u'Russian'} || {u'onForm': u'true', u'uri': u'lang : zxx', u'label': u'No linguistic content'} || {u'onForm': u'true', u'uri': u'lang : eng', u'label': u'English'} || {u'onForm': u'true', u'uri': u'lang : fre', u'label': u'French'} || {u'onForm': u'false', u'uri': u'lang : por', u'label': u'Portuguese'} || {u'onForm': u'true', u'uri': u'lang : zho', u'label': u'Chinese'} || {u'onForm': u'false', u'uri': u'lang : vie', u'label': u'Vietnamese'} || {u'onForm': u'false', u'uri': u'lang : ipk', u'label': u'Inupiaq'} || {u'onForm': u'true', u'uri': u'lang : spa', u'label': u'Spanish'} || {u'onForm': u'true', u'uri': u'lang : ukr', u'label': u'Ukranian'} || {u'onForm': u'true', u'uri': u'lang : jpn', u'label': u'Japanese'} || {u'onForm': u'true', u'uri': u'lang : ger', u'label': u'German'} || {u'onForm': u'true', u'uri': u'ual : other', u'label': u'Other language'}</t>
   </si>
   <si>
     <t>https://github.com/ualbertalib/metadata/tree/master/data_dictionary/jupiter_ontology.md#ualfedora3handle</t>
@@ -2006,13 +2009,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2020,40 +2023,40 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -2199,7 +2202,7 @@
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>141</v>
@@ -2260,10 +2263,10 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2271,10 +2274,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2282,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2293,10 +2296,10 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2304,10 +2307,10 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2315,10 +2318,10 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2326,10 +2329,10 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2337,10 +2340,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2348,21 +2351,21 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2370,32 +2373,32 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2403,10 +2406,10 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2511,7 @@
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2533,19 +2536,19 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>164</v>
@@ -2554,16 +2557,16 @@
         <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2574,19 +2577,19 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>168</v>
@@ -2604,10 +2607,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -2621,13 +2624,13 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>163</v>
@@ -2856,19 +2859,19 @@
         <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
         <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
         <v>181</v>
@@ -2877,16 +2880,16 @@
         <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3398,13 +3401,13 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>164</v>
@@ -3413,19 +3416,19 @@
         <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3439,13 +3442,13 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>168</v>
@@ -3457,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>80</v>
@@ -3466,10 +3469,10 @@
         <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>168</v>
@@ -3486,7 +3489,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>163</v>
@@ -3504,7 +3507,7 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
@@ -3721,13 +3724,13 @@
         <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
         <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>181</v>
@@ -3736,19 +3739,19 @@
         <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>160</v>
@@ -3956,13 +3959,13 @@
         <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
         <v>160</v>
@@ -3974,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4124,7 +4127,7 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
         <v>160</v>
@@ -4345,7 +4348,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>202</v>
@@ -4354,13 +4357,13 @@
         <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
         <v>80</v>
@@ -4377,10 +4380,10 @@
         <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -4395,13 +4398,13 @@
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -4521,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>160</v>
@@ -4542,7 +4545,7 @@
         <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
         <v>163</v>
@@ -4568,10 +4571,10 @@
         <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>160</v>
@@ -4586,13 +4589,13 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
         <v>163</v>
@@ -4718,10 +4721,10 @@
         <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
         <v>160</v>
@@ -4733,16 +4736,16 @@
         <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>163</v>
@@ -4771,7 +4774,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>160</v>
@@ -4786,7 +4789,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -4874,10 +4877,10 @@
         <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>160</v>
@@ -4892,13 +4895,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s">
         <v>163</v>
@@ -4980,7 +4983,7 @@
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -4998,7 +5001,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
         <v>80</v>
@@ -5033,10 +5036,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -5048,16 +5051,16 @@
         <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -5351,10 +5354,10 @@
         <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
@@ -5366,16 +5369,16 @@
         <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -5422,7 +5425,7 @@
         <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
         <v>80</v>
@@ -5457,10 +5460,10 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
@@ -5475,13 +5478,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -5563,10 +5566,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -5578,16 +5581,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -5616,13 +5619,13 @@
         <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>256</v>
@@ -5634,10 +5637,10 @@
         <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s">
         <v>80</v>
@@ -5669,10 +5672,10 @@
         <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
         <v>160</v>
@@ -5684,16 +5687,16 @@
         <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s">
         <v>163</v>
@@ -5828,10 +5831,10 @@
         <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>160</v>
@@ -5843,16 +5846,16 @@
         <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M35" t="s">
         <v>163</v>
@@ -5899,7 +5902,7 @@
         <v>160</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>160</v>
@@ -5934,10 +5937,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -5958,7 +5961,7 @@
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -5987,10 +5990,10 @@
         <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
@@ -6008,10 +6011,10 @@
         <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
         <v>163</v>
@@ -6043,7 +6046,7 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
@@ -6211,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
@@ -6264,10 +6267,10 @@
         <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
         <v>160</v>
@@ -6288,7 +6291,7 @@
         <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s">
         <v>163</v>
@@ -6432,10 +6435,10 @@
         <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -6456,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -6544,10 +6547,10 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
         <v>160</v>
@@ -6562,13 +6565,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s">
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -6765,10 +6768,10 @@
         <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
         <v>80</v>
@@ -6783,13 +6786,13 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s">
         <v>163</v>
@@ -6824,7 +6827,7 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -6877,10 +6880,10 @@
         <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
         <v>160</v>
@@ -6892,16 +6895,16 @@
         <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M54" t="s">
         <v>163</v>
@@ -6936,7 +6939,7 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
         <v>80</v>
@@ -7173,7 +7176,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>202</v>
@@ -7182,13 +7185,13 @@
         <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>80</v>
@@ -7229,7 +7232,7 @@
         <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>163</v>
@@ -7252,10 +7255,10 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -7267,16 +7270,16 @@
         <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -7299,7 +7302,7 @@
         <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -7317,7 +7320,7 @@
         <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7552,7 +7555,7 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -7567,13 +7570,13 @@
         <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
         <v>163</v>
@@ -7649,7 +7652,7 @@
         <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>80</v>
@@ -7667,7 +7670,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -7699,10 +7702,10 @@
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
         <v>160</v>
@@ -7723,7 +7726,7 @@
         <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
         <v>163</v>
@@ -7799,10 +7802,10 @@
         <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -7814,16 +7817,16 @@
         <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
         <v>163</v>
@@ -7899,10 +7902,10 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -7923,7 +7926,7 @@
         <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
         <v>163</v>
@@ -7949,10 +7952,10 @@
         <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>160</v>
@@ -7964,16 +7967,16 @@
         <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
         <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
         <v>163</v>
@@ -8099,10 +8102,10 @@
         <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>160</v>
@@ -8114,16 +8117,16 @@
         <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s">
         <v>163</v>
@@ -8199,13 +8202,13 @@
         <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>256</v>
@@ -8217,13 +8220,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
         <v>163</v>
@@ -8249,13 +8252,13 @@
         <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>339</v>
@@ -8273,7 +8276,7 @@
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
         <v>163</v>
@@ -8299,10 +8302,10 @@
         <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -8314,16 +8317,16 @@
         <v>182</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
         <v>163</v>
@@ -8399,10 +8402,10 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -8414,16 +8417,16 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
         <v>163</v>
@@ -8558,7 +8561,7 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
         <v>80</v>
@@ -8611,10 +8614,10 @@
         <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>160</v>
@@ -8629,7 +8632,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
         <v>80</v>
@@ -8741,7 +8744,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>80</v>
@@ -8779,10 +8782,10 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>160</v>
@@ -8794,16 +8797,16 @@
         <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
         <v>163</v>
@@ -8853,7 +8856,7 @@
         <v>160</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s">
         <v>160</v>
@@ -8891,10 +8894,10 @@
         <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>160</v>
@@ -8909,13 +8912,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
         <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
         <v>163</v>
@@ -9003,10 +9006,10 @@
         <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
         <v>160</v>
@@ -9027,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
         <v>163</v>
@@ -9227,10 +9230,10 @@
         <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>160</v>
@@ -9245,13 +9248,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
         <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s">
         <v>163</v>
@@ -9286,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -9301,13 +9304,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s">
         <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
         <v>163</v>
@@ -9322,7 +9325,7 @@
         <v>160</v>
       </c>
       <c r="Q46" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="R46" t="s">
         <v>160</v>
@@ -9339,10 +9342,10 @@
         <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>160</v>
@@ -9354,22 +9357,22 @@
         <v>165</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s">
         <v>163</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s">
         <v>160</v>
@@ -9398,7 +9401,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
@@ -9419,7 +9422,7 @@
         <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -9442,25 +9445,25 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
         <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
         <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -9469,22 +9472,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s">
         <v>80</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s">
         <v>163</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P49" t="s">
         <v>160</v>
@@ -9537,7 +9540,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
@@ -9548,7 +9551,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9588,7 +9591,7 @@
         <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9596,10 +9599,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9607,7 +9610,7 @@
         <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
@@ -9618,7 +9621,7 @@
         <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9629,10 +9632,10 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9640,7 +9643,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>160</v>
@@ -9651,10 +9654,10 @@
         <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9662,10 +9665,10 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9673,10 +9676,10 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9684,7 +9687,7 @@
         <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -9695,7 +9698,7 @@
         <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -9739,10 +9742,10 @@
         <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9761,10 +9764,10 @@
         <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9783,10 +9786,10 @@
         <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9794,7 +9797,7 @@
         <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
@@ -9816,7 +9819,7 @@
         <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
         <v>160</v>
@@ -9827,7 +9830,7 @@
         <v>300</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
         <v>160</v>
@@ -9835,10 +9838,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
@@ -9885,13 +9888,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9899,7 +9902,7 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9907,7 +9910,7 @@
         <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9915,7 +9918,7 @@
         <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9923,7 +9926,7 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9931,15 +9934,15 @@
         <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9947,10 +9950,10 @@
         <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9958,10 +9961,10 @@
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9969,7 +9972,7 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -9980,7 +9983,7 @@
         <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
         <v>160</v>
@@ -9991,10 +9994,10 @@
         <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10002,7 +10005,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
@@ -10013,7 +10016,7 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>160</v>
@@ -10024,7 +10027,7 @@
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -10035,7 +10038,7 @@
         <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -10046,7 +10049,7 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -10057,7 +10060,7 @@
         <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -10068,7 +10071,7 @@
         <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
@@ -10079,7 +10082,7 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
         <v>160</v>
@@ -10093,10 +10096,10 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10104,7 +10107,7 @@
         <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
@@ -10118,7 +10121,7 @@
         <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
         <v>160</v>
@@ -10132,7 +10135,7 @@
         <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
         <v>160</v>
@@ -10146,7 +10149,7 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
         <v>160</v>
@@ -10157,10 +10160,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>acl</t>
   </si>
@@ -446,7 +446,7 @@
     <t>http://terms.library.ualberta.ca/learningObject</t>
   </si>
   <si>
-    <t>Conference Poster</t>
+    <t>Conference/Workshop Poster</t>
   </si>
   <si>
     <t>http://vivoweb.org/ontology/core#ConferencePoster</t>
@@ -470,12 +470,6 @@
     <t>http://vivoweb.org/ontology/core#Review</t>
   </si>
   <si>
-    <t>Conference Paper</t>
-  </si>
-  <si>
-    <t>http://vivoweb.org/ontology/core#ConferencePaper</t>
-  </si>
-  <si>
     <t>Chapter</t>
   </si>
   <si>
@@ -926,7 +920,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>{'label': 'Report', 'onForm': 'true', 'uri': 'bibo : Report'} || {'label': 'Learning Object', 'onForm': 'true', 'uri': 'ual : learningObject'} || {'label': 'Conference Poster', 'onForm': 'true', 'uri': 'vivo : ConferencePoster'} || {'label': 'Article', 'onForm': 'true', 'uri': 'bibo : Article'} || {'label': 'Image', 'onForm': 'true', 'uri': 'bibo : Image'} || {'label': 'Review', 'onForm': 'true', 'uri': 'vivo : Review'} || {'label': 'Conference Paper', 'onForm': 'true', 'uri': 'vivo : ConferencePaper'} || {'label': 'Chapter', 'onForm': 'true', 'uri': 'bibo : Chapter'} || {'label': 'Dataset', 'onForm': 'true', 'uri': 'vivo : Dataset'} || {'label': 'Book', 'onForm': 'true', 'uri': 'bibo : Book'} || {'label': 'Research Material', 'onForm': 'true', 'uri': 'ual : researchMaterial'}</t>
+    <t>{'label': 'Report', 'onForm': 'true', 'uri': 'bibo : Report'} || {'label': 'Learning Object', 'onForm': 'true', 'uri': 'ual : learningObject'} || {'label': 'Conference/Workshop Poster', 'onForm': 'true', 'uri': 'vivo : ConferencePoster'} || {'label': 'Article', 'onForm': 'true', 'uri': 'bibo : Article'} || {'label': 'Image', 'onForm': 'true', 'uri': 'bibo : Image'} || {'label': 'Review', 'onForm': 'true', 'uri': 'vivo : Review'} || {'label': 'Chapter', 'onForm': 'true', 'uri': 'bibo : Chapter'} || {'label': 'Dataset', 'onForm': 'true', 'uri': 'vivo : Dataset'} || {'label': 'Book', 'onForm': 'true', 'uri': 'bibo : Book'} || {'label': 'Research Material', 'onForm': 'true', 'uri': 'ual : researchMaterial'}</t>
   </si>
   <si>
     <t>bibo : status</t>
@@ -1989,7 +1983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,20 +2439,20 @@
       </c>
     </row>
     <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -2474,7 +2468,7 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2503,38 +2497,27 @@
       </c>
     </row>
     <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2579,208 +2562,208 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>176</v>
-      </c>
-      <c r="J1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>180</v>
-      </c>
-      <c r="O1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
         <v>193</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>194</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
         <v>195</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
         <v>196</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
         <v>199</v>
       </c>
-      <c r="B13" t="s">
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" t="s">
-        <v>201</v>
       </c>
       <c r="N13" t="s">
         <v>6</v>
@@ -2788,337 +2771,337 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
         <v>202</v>
       </c>
-      <c r="B14" t="s">
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" t="s">
         <v>202</v>
       </c>
-      <c r="C14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
         <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" t="s">
-        <v>204</v>
-      </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
         <v>206</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>207</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
         <v>208</v>
       </c>
-      <c r="D15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" t="s">
         <v>210</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" t="s">
-        <v>211</v>
-      </c>
-      <c r="N15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" t="s">
         <v>219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" t="s">
-        <v>211</v>
-      </c>
-      <c r="N19" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3162,143 +3145,143 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
         <v>176</v>
       </c>
-      <c r="I1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
       <c r="L1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
       </c>
       <c r="O1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" t="s">
         <v>179</v>
       </c>
-      <c r="P1" t="s">
-        <v>181</v>
-      </c>
       <c r="Q1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
         <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3327,499 +3310,499 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
         <v>193</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
         <v>194</v>
       </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="M13" t="s">
         <v>195</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>196</v>
-      </c>
-      <c r="M13" t="s">
-        <v>197</v>
-      </c>
-      <c r="N13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" t="s">
         <v>199</v>
       </c>
-      <c r="B14" t="s">
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" t="s">
         <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M14" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" t="s">
         <v>202</v>
       </c>
-      <c r="B15" t="s">
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" t="s">
         <v>202</v>
       </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>203</v>
-      </c>
-      <c r="M15" t="s">
-        <v>204</v>
-      </c>
-      <c r="N15" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" t="s">
-        <v>204</v>
-      </c>
-      <c r="P15" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
         <v>206</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
         <v>207</v>
       </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="M16" t="s">
         <v>208</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>209</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" t="s">
         <v>210</v>
-      </c>
-      <c r="N16" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" t="s">
-        <v>211</v>
-      </c>
-      <c r="P16" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
         <v>227</v>
       </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s">
         <v>228</v>
       </c>
-      <c r="D19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" t="s">
-        <v>230</v>
-      </c>
       <c r="N19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I21" t="s">
         <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3863,170 +3846,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
         <v>176</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" t="s">
         <v>177</v>
       </c>
-      <c r="J1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" t="s">
-        <v>179</v>
-      </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -4055,484 +4038,484 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
         <v>239</v>
       </c>
-      <c r="B16" t="s">
+      <c r="M16" t="s">
         <v>240</v>
       </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>241</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>242</v>
       </c>
-      <c r="N16" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" t="s">
-        <v>244</v>
-      </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" t="s">
         <v>245</v>
       </c>
-      <c r="B17" t="s">
+      <c r="N17" t="s">
         <v>246</v>
       </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>247</v>
       </c>
-      <c r="N17" t="s">
-        <v>248</v>
-      </c>
-      <c r="O17" t="s">
-        <v>249</v>
-      </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
         <v>193</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s">
         <v>194</v>
       </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="N18" t="s">
+        <v>248</v>
+      </c>
+      <c r="O18" t="s">
         <v>195</v>
       </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>196</v>
       </c>
-      <c r="N18" t="s">
-        <v>250</v>
-      </c>
-      <c r="O18" t="s">
-        <v>197</v>
-      </c>
-      <c r="P18" t="s">
-        <v>198</v>
-      </c>
       <c r="Q18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
         <v>251</v>
       </c>
-      <c r="B19" t="s">
+      <c r="M19" t="s">
         <v>252</v>
       </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>253</v>
       </c>
-      <c r="M19" t="s">
-        <v>254</v>
-      </c>
-      <c r="N19" t="s">
-        <v>255</v>
-      </c>
       <c r="O19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s">
         <v>256</v>
       </c>
-      <c r="B20" t="s">
+      <c r="N20" t="s">
         <v>257</v>
       </c>
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>258</v>
       </c>
-      <c r="N20" t="s">
-        <v>259</v>
-      </c>
-      <c r="O20" t="s">
-        <v>260</v>
-      </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>260</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
         <v>261</v>
       </c>
-      <c r="B21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" t="s">
-        <v>262</v>
-      </c>
-      <c r="N21" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" t="s">
-        <v>263</v>
-      </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" t="s">
         <v>264</v>
       </c>
-      <c r="B22" t="s">
+      <c r="O22" t="s">
         <v>264</v>
       </c>
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" t="s">
-        <v>265</v>
-      </c>
-      <c r="N22" t="s">
-        <v>266</v>
-      </c>
-      <c r="O22" t="s">
-        <v>266</v>
-      </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" t="s">
         <v>199</v>
       </c>
-      <c r="B23" t="s">
+      <c r="O23" t="s">
         <v>199</v>
       </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" t="s">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s">
-        <v>201</v>
-      </c>
-      <c r="O23" t="s">
-        <v>201</v>
-      </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s">
         <v>267</v>
       </c>
-      <c r="B24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>268</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>269</v>
       </c>
-      <c r="N24" t="s">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s">
-        <v>271</v>
-      </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -4553,42 +4536,42 @@
         <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>209</v>
+      </c>
+      <c r="R25" t="s">
         <v>273</v>
-      </c>
-      <c r="N25" t="s">
-        <v>274</v>
-      </c>
-      <c r="O25" t="s">
-        <v>274</v>
-      </c>
-      <c r="P25" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>211</v>
-      </c>
-      <c r="R25" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -4609,157 +4592,157 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s">
+        <v>275</v>
+      </c>
+      <c r="N26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O26" t="s">
         <v>277</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>209</v>
+      </c>
+      <c r="R26" t="s">
         <v>278</v>
-      </c>
-      <c r="O26" t="s">
-        <v>279</v>
-      </c>
-      <c r="P26" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>211</v>
-      </c>
-      <c r="R26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s">
+        <v>281</v>
+      </c>
+      <c r="N28" t="s">
         <v>282</v>
       </c>
-      <c r="B28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" t="s">
-        <v>268</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>283</v>
       </c>
-      <c r="N28" t="s">
-        <v>284</v>
-      </c>
-      <c r="O28" t="s">
-        <v>285</v>
-      </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
         <v>79</v>
@@ -4777,210 +4760,210 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>209</v>
+      </c>
+      <c r="M30" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30" t="s">
         <v>288</v>
       </c>
-      <c r="B30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>211</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>289</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q30" t="s">
         <v>290</v>
       </c>
-      <c r="O30" t="s">
-        <v>291</v>
-      </c>
-      <c r="P30" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>292</v>
-      </c>
       <c r="R30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" t="s">
+        <v>292</v>
+      </c>
+      <c r="N31" t="s">
         <v>293</v>
       </c>
-      <c r="B31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>294</v>
       </c>
-      <c r="N31" t="s">
-        <v>295</v>
-      </c>
-      <c r="O31" t="s">
-        <v>296</v>
-      </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>79</v>
-      </c>
-      <c r="J32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" t="s">
-        <v>211</v>
-      </c>
-      <c r="M32" t="s">
-        <v>203</v>
-      </c>
-      <c r="N32" t="s">
-        <v>211</v>
-      </c>
-      <c r="O32" t="s">
-        <v>204</v>
-      </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -5001,717 +4984,717 @@
         <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M33" t="s">
+        <v>296</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
         <v>298</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>209</v>
+      </c>
+      <c r="R33" t="s">
         <v>299</v>
-      </c>
-      <c r="O33" t="s">
-        <v>300</v>
-      </c>
-      <c r="P33" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>211</v>
-      </c>
-      <c r="R33" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s">
         <v>302</v>
       </c>
-      <c r="B34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" t="s">
-        <v>303</v>
-      </c>
-      <c r="M34" t="s">
-        <v>304</v>
-      </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
         <v>55</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
         <v>206</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>209</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" t="s">
         <v>207</v>
       </c>
-      <c r="C38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="N38" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" t="s">
         <v>208</v>
       </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" t="s">
-        <v>212</v>
-      </c>
-      <c r="M38" t="s">
-        <v>209</v>
-      </c>
-      <c r="N38" t="s">
-        <v>211</v>
-      </c>
-      <c r="O38" t="s">
-        <v>210</v>
-      </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
         <v>309</v>
       </c>
-      <c r="B39" t="s">
+      <c r="M39" t="s">
         <v>310</v>
       </c>
-      <c r="C39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" t="s">
         <v>311</v>
       </c>
-      <c r="M39" t="s">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s">
-        <v>211</v>
-      </c>
-      <c r="O39" t="s">
-        <v>313</v>
-      </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s">
+        <v>313</v>
+      </c>
+      <c r="N40" t="s">
+        <v>209</v>
+      </c>
+      <c r="O40" t="s">
         <v>314</v>
       </c>
-      <c r="C40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" t="s">
-        <v>311</v>
-      </c>
-      <c r="M40" t="s">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s">
-        <v>211</v>
-      </c>
-      <c r="O40" t="s">
-        <v>316</v>
-      </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="s">
         <v>319</v>
       </c>
-      <c r="B43" t="s">
+      <c r="N43" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" t="s">
         <v>320</v>
       </c>
-      <c r="C43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" t="s">
-        <v>311</v>
-      </c>
-      <c r="M43" t="s">
-        <v>321</v>
-      </c>
-      <c r="N43" t="s">
-        <v>211</v>
-      </c>
-      <c r="O43" t="s">
-        <v>322</v>
-      </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="s">
         <v>323</v>
       </c>
-      <c r="B44" t="s">
+      <c r="N44" t="s">
+        <v>209</v>
+      </c>
+      <c r="O44" t="s">
         <v>324</v>
       </c>
-      <c r="C44" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" t="s">
-        <v>311</v>
-      </c>
-      <c r="M44" t="s">
-        <v>325</v>
-      </c>
-      <c r="N44" t="s">
-        <v>211</v>
-      </c>
-      <c r="O44" t="s">
-        <v>326</v>
-      </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -5735,529 +5718,529 @@
         <v>79</v>
       </c>
       <c r="L46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>209</v>
+      </c>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>309</v>
+      </c>
+      <c r="M47" t="s">
         <v>331</v>
       </c>
-      <c r="B47" t="s">
+      <c r="N47" t="s">
+        <v>209</v>
+      </c>
+      <c r="O47" t="s">
         <v>332</v>
       </c>
-      <c r="C47" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" t="s">
-        <v>211</v>
-      </c>
-      <c r="K47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" t="s">
-        <v>311</v>
-      </c>
-      <c r="M47" t="s">
-        <v>333</v>
-      </c>
-      <c r="N47" t="s">
-        <v>211</v>
-      </c>
-      <c r="O47" t="s">
-        <v>334</v>
-      </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
         <v>79</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R51" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6301,176 +6284,176 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>174</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
         <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>178</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" t="s">
         <v>341</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
         <v>343</v>
       </c>
-      <c r="D13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
         <v>344</v>
       </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>346</v>
-      </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
@@ -6478,30 +6461,30 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
         <v>79</v>
@@ -6510,7 +6493,7 @@
         <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -6519,10 +6502,10 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O14" t="s">
         <v>79</v>
@@ -6533,78 +6516,78 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
         <v>239</v>
-      </c>
-      <c r="B15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O15" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
         <v>252</v>
       </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
-        <v>254</v>
-      </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -6613,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -6622,52 +6605,52 @@
         <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O16" t="s">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
         <v>256</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
         <v>257</v>
       </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
         <v>258</v>
       </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>260</v>
-      </c>
       <c r="K17" t="s">
         <v>79</v>
       </c>
@@ -6675,10 +6658,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s">
         <v>6</v>
@@ -6687,40 +6670,40 @@
         <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>348</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H18" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
         <v>348</v>
       </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" t="s">
-        <v>349</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>350</v>
-      </c>
-      <c r="H18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s">
-        <v>350</v>
-      </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
@@ -6728,10 +6711,10 @@
         <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
         <v>6</v>
@@ -6740,43 +6723,43 @@
         <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
         <v>261</v>
       </c>
-      <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>263</v>
-      </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
@@ -6784,55 +6767,55 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
         <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
         <v>351</v>
       </c>
-      <c r="B20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>353</v>
-      </c>
       <c r="K20" t="s">
         <v>6</v>
       </c>
@@ -6840,55 +6823,55 @@
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
         <v>354</v>
       </c>
-      <c r="B21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" t="s">
-        <v>355</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>356</v>
-      </c>
       <c r="K21" t="s">
         <v>6</v>
       </c>
@@ -6896,55 +6879,55 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
         <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
         <v>267</v>
       </c>
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
         <v>269</v>
       </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>271</v>
-      </c>
       <c r="K22" t="s">
         <v>79</v>
       </c>
@@ -6952,45 +6935,45 @@
         <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
         <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
         <v>79</v>
@@ -6999,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
@@ -7008,111 +6991,111 @@
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
         <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
         <v>202</v>
       </c>
-      <c r="B25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" t="s">
-        <v>204</v>
-      </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
@@ -7120,10 +7103,10 @@
         <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
         <v>79</v>
@@ -7132,34 +7115,34 @@
         <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
         <v>357</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>358</v>
       </c>
-      <c r="C26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
         <v>359</v>
       </c>
-      <c r="E26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s">
-        <v>361</v>
-      </c>
       <c r="H26" t="s">
         <v>6</v>
       </c>
@@ -7167,7 +7150,7 @@
         <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
@@ -7176,158 +7159,158 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
         <v>362</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
         <v>363</v>
       </c>
-      <c r="C28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
         <v>364</v>
       </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" t="s">
-        <v>365</v>
-      </c>
-      <c r="H28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" t="s">
-        <v>366</v>
-      </c>
       <c r="K28" t="s">
         <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
         <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" t="s">
         <v>367</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
         <v>368</v>
       </c>
-      <c r="C29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>370</v>
-      </c>
       <c r="H29" t="s">
         <v>6</v>
       </c>
@@ -7335,7 +7318,7 @@
         <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K29" t="s">
         <v>79</v>
@@ -7344,223 +7327,223 @@
         <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O29" t="s">
         <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
         <v>206</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>207</v>
       </c>
-      <c r="C30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
         <v>208</v>
       </c>
-      <c r="E30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>196</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" t="s">
         <v>210</v>
       </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" t="s">
-        <v>198</v>
-      </c>
-      <c r="N30" t="s">
-        <v>211</v>
-      </c>
-      <c r="O30" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>212</v>
-      </c>
       <c r="R30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
         <v>371</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s">
         <v>372</v>
       </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" t="s">
+        <v>196</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>209</v>
+      </c>
+      <c r="R31" t="s">
         <v>373</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" t="s">
-        <v>211</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" t="s">
-        <v>374</v>
-      </c>
-      <c r="K31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" t="s">
-        <v>198</v>
-      </c>
-      <c r="N31" t="s">
-        <v>211</v>
-      </c>
-      <c r="O31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>211</v>
-      </c>
-      <c r="R31" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>311</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" t="s">
+        <v>196</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q32" t="s">
         <v>309</v>
       </c>
-      <c r="B32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" t="s">
-        <v>198</v>
-      </c>
-      <c r="N32" t="s">
-        <v>211</v>
-      </c>
-      <c r="O32" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>311</v>
-      </c>
       <c r="R32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
         <v>314</v>
       </c>
-      <c r="C33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" t="s">
-        <v>316</v>
-      </c>
       <c r="K33" t="s">
         <v>6</v>
       </c>
@@ -7568,46 +7551,46 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O33" t="s">
         <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" t="s">
         <v>376</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
         <v>377</v>
       </c>
-      <c r="C34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" t="s">
-        <v>378</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s">
-        <v>379</v>
-      </c>
       <c r="H34" t="s">
         <v>6</v>
       </c>
@@ -7615,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
@@ -7624,223 +7607,223 @@
         <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O34" t="s">
         <v>79</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
         <v>380</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
         <v>381</v>
       </c>
-      <c r="C38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" t="s">
-        <v>382</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>383</v>
-      </c>
       <c r="K38" t="s">
         <v>6</v>
       </c>
@@ -7848,45 +7831,45 @@
         <v>6</v>
       </c>
       <c r="M38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s">
         <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H39" t="s">
         <v>79</v>
@@ -7895,7 +7878,7 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
@@ -7904,10 +7887,10 @@
         <v>79</v>
       </c>
       <c r="M39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O39" t="s">
         <v>79</v>
@@ -7916,34 +7899,34 @@
         <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
         <v>384</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
         <v>385</v>
       </c>
-      <c r="C40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" t="s">
-        <v>386</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s">
-        <v>387</v>
-      </c>
       <c r="H40" t="s">
         <v>6</v>
       </c>
@@ -7951,7 +7934,7 @@
         <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
@@ -7960,66 +7943,66 @@
         <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O40" t="s">
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" t="s">
         <v>388</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s">
         <v>389</v>
       </c>
-      <c r="C41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s">
         <v>390</v>
       </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
-        <v>391</v>
-      </c>
-      <c r="H41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s">
-        <v>392</v>
-      </c>
       <c r="K41" t="s">
         <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O41" t="s">
         <v>6</v>
@@ -8028,43 +8011,43 @@
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
+        <v>393</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s">
         <v>395</v>
       </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" t="s">
-        <v>396</v>
-      </c>
-      <c r="H42" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s">
-        <v>397</v>
-      </c>
       <c r="K42" t="s">
         <v>6</v>
       </c>
@@ -8072,55 +8055,55 @@
         <v>6</v>
       </c>
       <c r="M42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O42" t="s">
         <v>6</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" t="s">
         <v>331</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
         <v>332</v>
       </c>
-      <c r="C43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>211</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" t="s">
-        <v>334</v>
-      </c>
       <c r="K43" t="s">
         <v>6</v>
       </c>
@@ -8128,358 +8111,358 @@
         <v>6</v>
       </c>
       <c r="M43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O43" t="s">
         <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O45" t="s">
         <v>79</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8523,329 +8506,329 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8889,333 +8872,333 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary/profiles.xlsx
+++ b/data_dictionary/profiles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
   <si>
     <t>acl</t>
   </si>
@@ -494,6 +494,12 @@
     <t>http://terms.library.ualberta.ca/researchMaterial</t>
   </si>
   <si>
+    <t>Conference/Workshop Presentation</t>
+  </si>
+  <si>
+    <t>http://vivoweb.org/ontology/core#Presentation</t>
+  </si>
+  <si>
     <t>http://purl.org/ontology/bibo/status</t>
   </si>
   <si>
@@ -920,7 +926,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>{'label': 'Report', 'onForm': 'true', 'uri': 'bibo : Report'} || {'label': 'Learning Object', 'onForm': 'true', 'uri': 'ual : learningObject'} || {'label': 'Conference/Workshop Poster', 'onForm': 'true', 'uri': 'vivo : ConferencePoster'} || {'label': 'Article', 'onForm': 'true', 'uri': 'bibo : Article'} || {'label': 'Image', 'onForm': 'true', 'uri': 'bibo : Image'} || {'label': 'Review', 'onForm': 'true', 'uri': 'vivo : Review'} || {'label': 'Chapter', 'onForm': 'true', 'uri': 'bibo : Chapter'} || {'label': 'Dataset', 'onForm': 'true', 'uri': 'vivo : Dataset'} || {'label': 'Book', 'onForm': 'true', 'uri': 'bibo : Book'} || {'label': 'Research Material', 'onForm': 'true', 'uri': 'ual : researchMaterial'}</t>
+    <t>{'label': 'Report', 'onForm': 'true', 'uri': 'bibo : Report'} || {'label': 'Learning Object', 'onForm': 'true', 'uri': 'ual : learningObject'} || {'label': 'Conference/Workshop Poster', 'onForm': 'true', 'uri': 'vivo : ConferencePoster'} || {'label': 'Article', 'onForm': 'true', 'uri': 'bibo : Article'} || {'label': 'Image', 'onForm': 'true', 'uri': 'bibo : Image'} || {'label': 'Review', 'onForm': 'true', 'uri': 'vivo : Review'} || {'label': 'Chapter', 'onForm': 'true', 'uri': 'bibo : Chapter'} || {'label': 'Dataset', 'onForm': 'true', 'uri': 'vivo : Dataset'} || {'label': 'Book', 'onForm': 'true', 'uri': 'bibo : Book'} || {'label': 'Research Material', 'onForm': 'true', 'uri': 'ual : researchMaterial'} || {'label': 'Conference/Workshop Presentation', 'onForm': 'true', 'uri': 'vivo : Presentation'}</t>
   </si>
   <si>
     <t>bibo : status</t>
@@ -1983,7 +1989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2439,20 +2445,20 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2497,27 +2503,38 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
         <v>116</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2562,143 +2579,143 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -2710,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
@@ -2722,48 +2739,48 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
         <v>198</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>196</v>
-      </c>
       <c r="M13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N13" t="s">
         <v>6</v>
@@ -2771,16 +2788,16 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -2792,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -2804,30 +2821,30 @@
         <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N14" t="s">
         <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -2839,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
@@ -2851,257 +2868,257 @@
         <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3145,143 +3162,143 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" t="s">
-        <v>173</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3310,16 +3327,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3337,33 +3354,33 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -3387,30 +3404,30 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" t="s">
+        <v>201</v>
+      </c>
+      <c r="N14" t="s">
         <v>198</v>
       </c>
-      <c r="M14" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" t="s">
-        <v>196</v>
-      </c>
       <c r="O14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -3434,183 +3451,183 @@
         <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
         <v>209</v>
       </c>
-      <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>207</v>
-      </c>
       <c r="M16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -3634,175 +3651,175 @@
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
         <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3846,170 +3863,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" t="s">
-        <v>173</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -4038,16 +4055,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
@@ -4071,86 +4088,86 @@
         <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N17" t="s">
+        <v>248</v>
+      </c>
+      <c r="O17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" t="s">
         <v>193</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17" t="s">
-        <v>245</v>
-      </c>
-      <c r="N17" t="s">
-        <v>246</v>
-      </c>
-      <c r="O17" t="s">
-        <v>247</v>
-      </c>
-      <c r="P17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -4174,36 +4191,36 @@
         <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
@@ -4221,42 +4238,42 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -4280,36 +4297,36 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
         <v>79</v>
@@ -4333,33 +4350,33 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
@@ -4383,36 +4400,36 @@
         <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -4436,36 +4453,36 @@
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23" t="s">
         <v>198</v>
       </c>
-      <c r="N23" t="s">
-        <v>199</v>
-      </c>
-      <c r="O23" t="s">
-        <v>199</v>
-      </c>
-      <c r="P23" t="s">
-        <v>196</v>
-      </c>
       <c r="Q23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
@@ -4483,39 +4500,39 @@
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -4536,42 +4553,42 @@
         <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -4592,101 +4609,101 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
@@ -4704,45 +4721,45 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
         <v>79</v>
@@ -4760,45 +4777,45 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
         <v>79</v>
@@ -4816,45 +4833,45 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
         <v>79</v>
@@ -4872,45 +4889,45 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s">
+        <v>294</v>
+      </c>
+      <c r="N31" t="s">
+        <v>295</v>
+      </c>
+      <c r="O31" t="s">
+        <v>296</v>
+      </c>
+      <c r="P31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" t="s">
         <v>292</v>
       </c>
-      <c r="N31" t="s">
-        <v>293</v>
-      </c>
-      <c r="O31" t="s">
-        <v>294</v>
-      </c>
-      <c r="P31" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>290</v>
-      </c>
       <c r="R31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
         <v>79</v>
@@ -4934,36 +4951,36 @@
         <v>79</v>
       </c>
       <c r="L32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -4984,45 +5001,45 @@
         <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
         <v>79</v>
@@ -5040,269 +5057,269 @@
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
         <v>55</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" t="s">
         <v>209</v>
       </c>
-      <c r="D38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>209</v>
-      </c>
-      <c r="K38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
+        <v>211</v>
+      </c>
+      <c r="O38" t="s">
         <v>210</v>
       </c>
-      <c r="M38" t="s">
-        <v>207</v>
-      </c>
-      <c r="N38" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" t="s">
-        <v>208</v>
-      </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -5320,45 +5337,45 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O39" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -5376,157 +5393,157 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
       </c>
       <c r="L40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -5544,45 +5561,45 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K43" t="s">
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O43" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -5600,101 +5617,101 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K44" t="s">
         <v>6</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -5718,39 +5735,39 @@
         <v>79</v>
       </c>
       <c r="L46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -5768,479 +5785,479 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K47" t="s">
         <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O47" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
         <v>79</v>
       </c>
       <c r="J51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6284,166 +6301,166 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -6452,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -6461,30 +6478,30 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" t="s">
         <v>79</v>
@@ -6493,7 +6510,7 @@
         <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -6502,10 +6519,10 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O14" t="s">
         <v>79</v>
@@ -6516,78 +6533,78 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
       </c>
       <c r="G15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
         <v>241</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>242</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>196</v>
-      </c>
-      <c r="N15" t="s">
-        <v>209</v>
-      </c>
-      <c r="O15" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -6596,7 +6613,7 @@
         <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -6605,42 +6622,42 @@
         <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
         <v>79</v>
@@ -6649,7 +6666,7 @@
         <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K17" t="s">
         <v>79</v>
@@ -6658,10 +6675,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s">
         <v>6</v>
@@ -6670,39 +6687,39 @@
         <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
         <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
@@ -6711,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
         <v>6</v>
@@ -6723,33 +6740,33 @@
         <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
         <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -6758,7 +6775,7 @@
         <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
@@ -6767,45 +6784,45 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
         <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -6814,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
@@ -6823,45 +6840,45 @@
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -6870,7 +6887,7 @@
         <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
@@ -6879,45 +6896,45 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
         <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
         <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -6926,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K22" t="s">
         <v>79</v>
@@ -6935,45 +6952,45 @@
         <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
         <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H23" t="s">
         <v>79</v>
@@ -6982,7 +6999,7 @@
         <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
@@ -6991,101 +7008,101 @@
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
         <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
         <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" t="s">
         <v>6</v>
@@ -7094,7 +7111,7 @@
         <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
@@ -7103,10 +7120,10 @@
         <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
         <v>79</v>
@@ -7115,33 +7132,33 @@
         <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
@@ -7150,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
@@ -7159,157 +7176,157 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F28" t="s">
         <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K28" t="s">
         <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
         <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F29" t="s">
         <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
@@ -7318,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K29" t="s">
         <v>79</v>
@@ -7327,45 +7344,45 @@
         <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
         <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" t="s">
         <v>209</v>
       </c>
-      <c r="D30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -7374,7 +7391,7 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
@@ -7383,66 +7400,66 @@
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
         <v>6</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K31" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
         <v>79</v>
@@ -7451,33 +7468,33 @@
         <v>79</v>
       </c>
       <c r="Q31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
         <v>6</v>
@@ -7486,54 +7503,54 @@
         <v>6</v>
       </c>
       <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" t="s">
         <v>311</v>
       </c>
-      <c r="K32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" t="s">
-        <v>196</v>
-      </c>
-      <c r="N32" t="s">
-        <v>209</v>
-      </c>
-      <c r="O32" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>309</v>
-      </c>
       <c r="R32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H33" t="s">
         <v>6</v>
@@ -7542,7 +7559,7 @@
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
@@ -7551,45 +7568,45 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O33" t="s">
         <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F34" t="s">
         <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H34" t="s">
         <v>6</v>
@@ -7598,7 +7615,7 @@
         <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
@@ -7607,213 +7624,213 @@
         <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
         <v>79</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R34" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
@@ -7822,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K38" t="s">
         <v>6</v>
@@ -7831,45 +7848,45 @@
         <v>6</v>
       </c>
       <c r="M38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O38" t="s">
         <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q38" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H39" t="s">
         <v>79</v>
@@ -7878,7 +7895,7 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
@@ -7887,10 +7904,10 @@
         <v>79</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O39" t="s">
         <v>79</v>
@@ -7899,33 +7916,33 @@
         <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F40" t="s">
         <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -7934,7 +7951,7 @@
         <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
@@ -7943,45 +7960,45 @@
         <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F41" t="s">
         <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -7990,19 +8007,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K41" t="s">
         <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O41" t="s">
         <v>6</v>
@@ -8011,33 +8028,33 @@
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F42" t="s">
         <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
@@ -8046,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="J42" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
@@ -8055,45 +8072,45 @@
         <v>6</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O42" t="s">
         <v>6</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
@@ -8102,7 +8119,7 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
         <v>6</v>
@@ -8111,358 +8128,358 @@
         <v>6</v>
       </c>
       <c r="M43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O43" t="s">
         <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O45" t="s">
         <v>79</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8506,329 +8523,329 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8872,333 +8889,333 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
